--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314880F-118B-402E-8E12-6636CA855046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF8EE9-FD23-4C6F-BE2E-B9AD82DF8672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="2" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
   <sheets>
     <sheet name="מדד על תכנון" sheetId="6" r:id="rId1"/>
     <sheet name="מדד על פיתוח" sheetId="5" r:id="rId2"/>
-    <sheet name="פרופיל הון תכנון ופיתוח" sheetId="7" r:id="rId3"/>
+    <sheet name="משאב הון תכנון ופיתוח" sheetId="7" r:id="rId3"/>
     <sheet name="צללית זמנית" sheetId="8" r:id="rId4"/>
     <sheet name="נתונים שונים" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -1683,12 +1683,84 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1703,78 +1775,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1784,817 +1784,7 @@
     <cellStyle name="Normal_מקומיות 2" xfId="3" xr:uid="{02A73396-D324-4C5C-BFF3-8591E4329035}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="105">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5409,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814DFBB6-7E08-4D07-BC22-E38BA1AEF93F}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5549,11 +4739,11 @@
         <v>10</v>
       </c>
       <c r="R2" s="38">
-        <f>N2*10/$N$14</f>
+        <f t="shared" ref="R2:R13" si="1">N2*10/$N$14</f>
         <v>4.4020546425706923</v>
       </c>
       <c r="S2" s="51">
-        <f>O2*10/$O$14</f>
+        <f t="shared" ref="S2:S13" si="2">O2*10/$O$14</f>
         <v>2.2182303991768122</v>
       </c>
       <c r="T2" s="14">
@@ -5604,7 +4794,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="82">
-        <f t="shared" ref="M3:M12" si="1">C3*10</f>
+        <f t="shared" ref="M3:M12" si="3">C3*10</f>
         <v>0</v>
       </c>
       <c r="N3" s="80">
@@ -5616,23 +4806,23 @@
         <v>552.22037587690636</v>
       </c>
       <c r="P3" s="50">
-        <f t="shared" ref="P3:Q13" si="2">L3</f>
+        <f t="shared" ref="P3:Q13" si="4">L3</f>
         <v>10</v>
       </c>
       <c r="Q3" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S3" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <f>N3*10/$N$14</f>
         <v>10</v>
       </c>
-      <c r="S3" s="51">
-        <f>O3*10/$O$14</f>
-        <v>10</v>
-      </c>
       <c r="T3" s="14">
-        <f t="shared" ref="T3:T13" si="3">AVERAGE(P3:S3)</f>
+        <f t="shared" ref="T3:T13" si="5">AVERAGE(P3:S3)</f>
         <v>7.5</v>
       </c>
       <c r="U3" s="61" t="s">
@@ -5675,15 +4865,15 @@
         <v>17344</v>
       </c>
       <c r="L4" s="95">
-        <f t="shared" ref="L4:L13" si="4">B4</f>
+        <f t="shared" ref="L4:L13" si="6">B4</f>
         <v>10</v>
       </c>
       <c r="M4" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N4" s="80">
-        <f t="shared" ref="N4:N13" si="5">E4*10000/H4</f>
+        <f t="shared" ref="N4:N13" si="7">E4*10000/H4</f>
         <v>5.7629312088000972</v>
       </c>
       <c r="O4" s="54">
@@ -5691,23 +4881,23 @@
         <v>178.84122527762099</v>
       </c>
       <c r="P4" s="50">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q4" s="38">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R4" s="38">
+        <f t="shared" si="1"/>
+        <v>5.8991376305445948</v>
+      </c>
+      <c r="S4" s="51">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q4" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R4" s="38">
-        <f>N4*10/$N$14</f>
-        <v>5.8991376305445948</v>
-      </c>
-      <c r="S4" s="51">
-        <f>O4*10/$O$14</f>
         <v>3.2385843241229098</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.2844304886668763</v>
       </c>
       <c r="U4" s="61" t="s">
@@ -5749,15 +4939,15 @@
         <v>6192</v>
       </c>
       <c r="L5" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M5" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N5" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3604334270826524</v>
       </c>
       <c r="O5" s="54">
@@ -5765,23 +4955,23 @@
         <v>127.11048987016898</v>
       </c>
       <c r="P5" s="50">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="38">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R5" s="38">
+        <f t="shared" si="1"/>
+        <v>4.4634919250656058</v>
+      </c>
+      <c r="S5" s="51">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q5" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R5" s="38">
-        <f>N5*10/$N$14</f>
-        <v>4.4634919250656058</v>
-      </c>
-      <c r="S5" s="51">
-        <f>O5*10/$O$14</f>
         <v>2.3018073114075523</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.6913248091182886</v>
       </c>
       <c r="U5" s="61" t="s">
@@ -5823,15 +5013,15 @@
         <v>8546</v>
       </c>
       <c r="L6" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M6" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N6" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0164539690183805</v>
       </c>
       <c r="O6" s="54">
@@ -5839,23 +5029,23 @@
         <v>194.20896472878056</v>
       </c>
       <c r="P6" s="50">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="38">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R6" s="38">
+        <f t="shared" si="1"/>
+        <v>5.1350174604448622</v>
+      </c>
+      <c r="S6" s="51">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q6" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R6" s="38">
-        <f>N6*10/$N$14</f>
-        <v>5.1350174604448622</v>
-      </c>
-      <c r="S6" s="51">
-        <f>O6*10/$O$14</f>
         <v>3.5168742989677555</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.1629729398531552</v>
       </c>
       <c r="U6" s="61" t="s">
@@ -5897,15 +5087,15 @@
         <v>2931</v>
       </c>
       <c r="L7" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M7" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N7" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9026928580720699</v>
       </c>
       <c r="O7" s="54">
@@ -5913,23 +5103,23 @@
         <v>85.279542404066689</v>
       </c>
       <c r="P7" s="50">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="38">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R7" s="38">
+        <f t="shared" si="1"/>
+        <v>3.9949326940350747</v>
+      </c>
+      <c r="S7" s="51">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R7" s="38">
-        <f>N7*10/$N$14</f>
-        <v>3.9949326940350747</v>
-      </c>
-      <c r="S7" s="51">
-        <f>O7*10/$O$14</f>
         <v>1.5443027119136232</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6348088514871746</v>
       </c>
       <c r="U7" s="61" t="s">
@@ -5971,14 +5161,14 @@
         <v>6774</v>
       </c>
       <c r="L8" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M8" s="82">
         <v>5</v>
       </c>
       <c r="N8" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8880248833592534</v>
       </c>
       <c r="O8" s="54">
@@ -5986,23 +5176,23 @@
         <v>117.67461892249072</v>
       </c>
       <c r="P8" s="50">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q8" s="38">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.9799180429040457</v>
+      </c>
+      <c r="S8" s="51">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q8" s="38">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="R8" s="38">
-        <f>N8*10/$N$14</f>
-        <v>3.9799180429040457</v>
-      </c>
-      <c r="S8" s="51">
-        <f>O8*10/$O$14</f>
         <v>2.1309358376287295</v>
       </c>
       <c r="T8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.277713470133194</v>
       </c>
       <c r="U8" s="61" t="s">
@@ -6044,15 +5234,15 @@
         <v>4513</v>
       </c>
       <c r="L9" s="141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M9" s="142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N9" s="143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2892728509180662</v>
       </c>
       <c r="O9" s="144">
@@ -6060,23 +5250,23 @@
         <v>93.212596831661472</v>
       </c>
       <c r="P9" s="145">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="146">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="146">
+        <f t="shared" si="1"/>
+        <v>5.4142843949659554</v>
+      </c>
+      <c r="S9" s="147">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q9" s="146">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="R9" s="146">
-        <f>N9*10/$N$14</f>
-        <v>5.4142843949659554</v>
-      </c>
-      <c r="S9" s="147">
-        <f>O9*10/$O$14</f>
         <v>1.6879601134536764</v>
       </c>
       <c r="T9" s="148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0255611271049077</v>
       </c>
       <c r="U9" s="61" t="s">
@@ -6118,14 +5308,14 @@
         <v>6692</v>
       </c>
       <c r="L10" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M10" s="82">
         <v>5</v>
       </c>
       <c r="N10" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2845743275379169</v>
       </c>
       <c r="O10" s="54">
@@ -6133,23 +5323,23 @@
         <v>124.2893970813019</v>
       </c>
       <c r="P10" s="50">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="38">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="38">
+        <f t="shared" si="1"/>
+        <v>5.4094748223586144</v>
+      </c>
+      <c r="S10" s="51">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q10" s="38">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="R10" s="38">
-        <f>N10*10/$N$14</f>
-        <v>5.4094748223586144</v>
-      </c>
-      <c r="S10" s="51">
-        <f>O10*10/$O$14</f>
         <v>2.2507209532776611</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9150489439090688</v>
       </c>
       <c r="U10" s="61" t="s">
@@ -6191,15 +5381,15 @@
         <v>9717</v>
       </c>
       <c r="L11" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M11" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7166632976214542</v>
       </c>
       <c r="O11" s="54">
@@ -6207,23 +5397,23 @@
         <v>161.64520053058968</v>
       </c>
       <c r="P11" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <f t="shared" si="1"/>
+        <v>4.8281412603223801</v>
+      </c>
+      <c r="S11" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q11" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="38">
-        <f>N11*10/$N$14</f>
-        <v>4.8281412603223801</v>
-      </c>
-      <c r="S11" s="51">
-        <f>O11*10/$O$14</f>
         <v>2.9271864565646069</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4388319292217466</v>
       </c>
       <c r="U11" s="61" t="s">
@@ -6265,15 +5455,15 @@
         <v>8718</v>
       </c>
       <c r="L12" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M12" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.3267330118668994</v>
       </c>
       <c r="O12" s="54">
@@ -6281,23 +5471,23 @@
         <v>298.0193291923004</v>
       </c>
       <c r="P12" s="50">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f t="shared" si="1"/>
+        <v>6.4762648444807054</v>
+      </c>
+      <c r="S12" s="51">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q12" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f>N12*10/$N$14</f>
-        <v>6.4762648444807054</v>
-      </c>
-      <c r="S12" s="51">
-        <f>O12*10/$O$14</f>
         <v>5.3967463391595478</v>
       </c>
       <c r="T12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7182527959100637</v>
       </c>
       <c r="U12" s="61" t="s">
@@ -6339,14 +5529,14 @@
         <v>3857</v>
       </c>
       <c r="L13" s="96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M13" s="83">
         <v>5</v>
       </c>
       <c r="N13" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7834491298067001</v>
       </c>
       <c r="O13" s="56">
@@ -6354,23 +5544,23 @@
         <v>131.4966968512816</v>
       </c>
       <c r="P13" s="52">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q13" s="39">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R13" s="39">
+        <f t="shared" si="1"/>
+        <v>3.8728706497159409</v>
+      </c>
+      <c r="S13" s="53">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q13" s="39">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="R13" s="39">
-        <f>N13*10/$N$14</f>
-        <v>3.8728706497159409</v>
-      </c>
-      <c r="S13" s="53">
-        <f>O13*10/$O$14</f>
         <v>2.3812358724081761</v>
       </c>
       <c r="T13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3135266305310296</v>
       </c>
       <c r="U13" s="61" t="s">
@@ -6389,51 +5579,51 @@
       <c r="G14" s="89"/>
       <c r="H14" s="101"/>
       <c r="I14" s="100">
-        <f>MAX(I2:I13)</f>
+        <f t="shared" ref="I14:T14" si="8">MAX(I2:I13)</f>
         <v>31517</v>
       </c>
       <c r="J14" s="89">
-        <f>MAX(J2:J13)</f>
+        <f t="shared" si="8"/>
         <v>34766</v>
       </c>
       <c r="K14" s="101">
-        <f>MAX(K2:K13)</f>
+        <f t="shared" si="8"/>
         <v>38736</v>
       </c>
       <c r="L14" s="102">
-        <f>MAX(L2:L13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="M14" s="89">
-        <f>MAX(M2:M13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="N14" s="90">
-        <f>MAX(N2:N13)</f>
+        <f t="shared" si="8"/>
         <v>9.7691079098761033</v>
       </c>
       <c r="O14" s="101">
-        <f>MAX(O2:O13)</f>
+        <f t="shared" si="8"/>
         <v>552.22037587690636</v>
       </c>
       <c r="P14" s="102">
-        <f>MAX(P2:P13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Q14" s="89">
-        <f>MAX(Q2:Q13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R14" s="89">
-        <f>MAX(R2:R13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S14" s="101">
-        <f>MAX(S2:S13)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="T14" s="103">
-        <f>MAX(T2:T13)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="U14" s="16" t="s">
@@ -6593,149 +5783,149 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="113"/>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="191" t="s">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="204" t="s">
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="206"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="183"/>
       <c r="AD1" s="175" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.7" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="181">
+      <c r="C2" s="205"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="204">
         <v>2018</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="184">
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="208">
         <v>2019</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181">
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="204">
         <v>2020</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="184" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="182"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="196" t="s">
+      <c r="R2" s="205"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194" t="s">
+      <c r="U2" s="196"/>
+      <c r="V2" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="194"/>
+      <c r="W2" s="196"/>
       <c r="X2" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="211" t="s">
+      <c r="Y2" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="207" t="s">
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="208"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="173" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="176"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="189"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="170"/>
       <c r="C3" s="170"/>
       <c r="D3" s="171"/>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199" t="s">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="200"/>
-      <c r="I3" s="198" t="s">
+      <c r="H3" s="201"/>
+      <c r="I3" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199" t="s">
+      <c r="J3" s="200"/>
+      <c r="K3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="200"/>
-      <c r="M3" s="201" t="s">
+      <c r="L3" s="201"/>
+      <c r="M3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199" t="s">
+      <c r="N3" s="200"/>
+      <c r="O3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="198" t="s">
+      <c r="P3" s="203"/>
+      <c r="Q3" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="199"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
       <c r="X3" s="172"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="210"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="187"/>
       <c r="AC3" s="174"/>
       <c r="AD3" s="176"/>
       <c r="AE3" s="129"/>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A4" s="190"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="169" t="s">
         <v>13</v>
       </c>
@@ -8248,6 +7438,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="Y2:Z3"/>
@@ -8264,10 +7458,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">
@@ -8385,8 +7575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8368588A-FD19-4899-A6CF-AD984CFDAC7B}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8816,15 +8006,15 @@
         <v>53</v>
       </c>
       <c r="C4" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B15</f>
+        <f>'משאב הון תכנון ופיתוח'!B15</f>
         <v>7.5</v>
       </c>
       <c r="D4" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B9</f>
+        <f>'משאב הון תכנון ופיתוח'!B9</f>
         <v>5.0255611271049077</v>
       </c>
       <c r="E4" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B17</f>
+        <f>'משאב הון תכנון ופיתוח'!B17</f>
         <v>5.4741677410091025</v>
       </c>
       <c r="F4" s="46"/>
@@ -8834,15 +8024,15 @@
         <v>54</v>
       </c>
       <c r="C5" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C15</f>
+        <f>'משאב הון תכנון ופיתוח'!C15</f>
         <v>10</v>
       </c>
       <c r="D5" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C9</f>
+        <f>'משאב הון תכנון ופיתוח'!C9</f>
         <v>10</v>
       </c>
       <c r="E5" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C17</f>
+        <f>'משאב הון תכנון ופיתוח'!C17</f>
         <v>4.5769840885188779</v>
       </c>
       <c r="F5" s="46"/>
@@ -8852,15 +8042,15 @@
         <v>48</v>
       </c>
       <c r="C6" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D15</f>
+        <f>'משאב הון תכנון ופיתוח'!D15</f>
         <v>7.5127805635524538</v>
       </c>
       <c r="D6" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D9</f>
+        <f>'משאב הון תכנון ופיתוח'!D9</f>
         <v>7.5127805635524538</v>
       </c>
       <c r="E6" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D17</f>
+        <f>'משאב הון תכנון ופיתוח'!D17</f>
         <v>5.5856054504256294</v>
       </c>
     </row>
@@ -8888,19 +8078,19 @@
         <v>53</v>
       </c>
       <c r="C11" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B20</f>
+        <f>'משאב הון תכנון ופיתוח'!B20</f>
         <v>6.9834498952349353</v>
       </c>
       <c r="D11" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B9</f>
+        <f>'משאב הון תכנון ופיתוח'!B9</f>
         <v>5.0255611271049077</v>
       </c>
       <c r="E11" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!B17</f>
+        <f>'משאב הון תכנון ופיתוח'!B17</f>
         <v>5.4741677410091025</v>
       </c>
       <c r="F11" s="48">
-        <f>'פרופיל הון תכנון ופיתוח'!B21</f>
+        <f>'משאב הון תכנון ופיתוח'!B21</f>
         <v>0.28036125375023702</v>
       </c>
       <c r="G11" s="48"/>
@@ -8910,19 +8100,19 @@
         <v>54</v>
       </c>
       <c r="C12" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C20</f>
+        <f>'משאב הון תכנון ופיתוח'!C20</f>
         <v>7.1737080170747856</v>
       </c>
       <c r="D12" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C9</f>
+        <f>'משאב הון תכנון ופיתוח'!C9</f>
         <v>10</v>
       </c>
       <c r="E12" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!C17</f>
+        <f>'משאב הון תכנון ופיתוח'!C17</f>
         <v>4.5769840885188779</v>
       </c>
       <c r="F12" s="48">
-        <f>'פרופיל הון תכנון ופיתוח'!C21</f>
+        <f>'משאב הון תכנון ופיתוח'!C21</f>
         <v>-0.39397923308254312</v>
       </c>
       <c r="G12" s="48"/>
@@ -8932,19 +8122,19 @@
         <v>48</v>
       </c>
       <c r="C13" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D20</f>
+        <f>'משאב הון תכנון ופיתוח'!D20</f>
         <v>6.5163968619448758</v>
       </c>
       <c r="D13" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D9</f>
+        <f>'משאב הון תכנון ופיתוח'!D9</f>
         <v>7.5127805635524538</v>
       </c>
       <c r="E13" s="46">
-        <f>'פרופיל הון תכנון ופיתוח'!D17</f>
+        <f>'משאב הון תכנון ופיתוח'!D17</f>
         <v>5.5856054504256294</v>
       </c>
       <c r="F13" s="48">
-        <f>'פרופיל הון תכנון ופיתוח'!D21</f>
+        <f>'משאב הון תכנון ופיתוח'!D21</f>
         <v>-0.15290408529694721</v>
       </c>
       <c r="G13" s="48"/>

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF8EE9-FD23-4C6F-BE2E-B9AD82DF8672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22737EAD-9062-461F-B360-59907FE9CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="2" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="1" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
   <sheets>
     <sheet name="מדד על תכנון" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
   <si>
     <t>אופקים</t>
   </si>
@@ -180,9 +180,6 @@
     <t>הוצאות</t>
   </si>
   <si>
-    <t>ציון מקסימום של מדד על פיתוח</t>
-  </si>
-  <si>
     <t>שם  הרשות</t>
   </si>
   <si>
@@ -268,13 +265,22 @@
     <t>חישוב מדד על פיתוח</t>
   </si>
   <si>
-    <t>ציון מקסימום של מדד על תכנון</t>
-  </si>
-  <si>
     <t>פער באחוזים מה-Benchmark</t>
   </si>
   <si>
-    <t>שם רשות</t>
+    <t>משתני מדד על תכנון</t>
+  </si>
+  <si>
+    <t>חישוב מדדי מדד על תכנון</t>
+  </si>
+  <si>
+    <t>נרמול מדדי מדד על תכנון</t>
+  </si>
+  <si>
+    <t>תכנון אסטרטגי</t>
+  </si>
+  <si>
+    <t>עובדים</t>
   </si>
 </sst>
 </file>
@@ -288,13 +294,20 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1157,133 +1170,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1302,479 +1357,534 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="10" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="10" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4600,7 +4710,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4614,1080 +4724,1149 @@
     <col min="21" max="21" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1">
-      <c r="A1" s="178" t="s">
+    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1">
+      <c r="A1" s="166"/>
+      <c r="B1" s="189" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.7" customHeight="1">
+      <c r="A2" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="197"/>
+      <c r="F2" s="196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="198"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="163">
+        <v>2018</v>
+      </c>
+      <c r="J2" s="164">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="165">
+        <v>2020</v>
+      </c>
+      <c r="L2" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="M2" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="N2" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="185" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="185" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="161"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A3" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="179" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="180" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="180" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="173" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="179" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="180" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="180" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="173" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="178" t="s">
+      <c r="L3" s="188"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="17.7" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="U3" s="167"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B4" s="89">
         <v>6</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C4" s="96">
         <v>1</v>
       </c>
-      <c r="D2" s="97">
+      <c r="D4" s="89">
         <v>17</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E4" s="96">
         <v>14</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F4" s="29">
         <v>29021</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G4" s="30">
         <v>30662</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H4" s="99">
         <v>32555</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I4" s="168">
         <v>3564</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J4" s="169">
         <v>3782</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K4" s="22">
         <v>3950</v>
       </c>
-      <c r="L2" s="94">
-        <f>B2</f>
+      <c r="L4" s="86">
+        <f>B4</f>
         <v>6</v>
       </c>
-      <c r="M2" s="82">
-        <f>C2*10</f>
+      <c r="M4" s="74">
+        <f>C4*10</f>
         <v>10</v>
       </c>
-      <c r="N2" s="80">
-        <f>E2*10000/H2</f>
+      <c r="N4" s="72">
+        <f>E4*10000/H4</f>
         <v>4.3004146828444174</v>
       </c>
-      <c r="O2" s="54">
-        <f t="shared" ref="O2:O13" si="0">(I2*1000/F2+J2*1000/G2+K2*1000/H2)/3</f>
+      <c r="O4" s="46">
+        <f t="shared" ref="O4:O15" si="0">(I4*1000/F4+J4*1000/G4+K4*1000/H4)/3</f>
         <v>122.49520248149992</v>
       </c>
-      <c r="P2" s="50">
-        <f>L2</f>
+      <c r="P4" s="170">
+        <f>L4</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="38">
-        <f>M2</f>
+      <c r="Q4" s="171">
+        <f>M4</f>
         <v>10</v>
       </c>
-      <c r="R2" s="38">
-        <f t="shared" ref="R2:R13" si="1">N2*10/$N$14</f>
+      <c r="R4" s="171">
+        <f t="shared" ref="R4:R15" si="1">N4*10/$N$17</f>
         <v>4.4020546425706923</v>
       </c>
-      <c r="S2" s="51">
-        <f t="shared" ref="S2:S13" si="2">O2*10/$O$14</f>
+      <c r="S4" s="172">
+        <f t="shared" ref="S4:S15" si="2">O4*10/$O$17</f>
         <v>2.2182303991768122</v>
       </c>
-      <c r="T2" s="14">
-        <f>AVERAGE(P2:S2)</f>
+      <c r="T4" s="14">
+        <f>AVERAGE(P4:S4)</f>
         <v>5.655071260436876</v>
       </c>
-      <c r="U2" s="61" t="s">
+      <c r="U4" s="53"/>
+    </row>
+    <row r="5" spans="1:22" s="15" customFormat="1">
+      <c r="A5" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89">
+        <v>10</v>
+      </c>
+      <c r="C5" s="96">
         <v>0</v>
       </c>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="97">
+      <c r="D5" s="89">
+        <v>88</v>
+      </c>
+      <c r="E5" s="96">
+        <v>63</v>
+      </c>
+      <c r="F5" s="29">
+        <v>62325</v>
+      </c>
+      <c r="G5" s="30">
+        <v>63175</v>
+      </c>
+      <c r="H5" s="99">
+        <v>64489</v>
+      </c>
+      <c r="I5" s="168">
+        <v>31517</v>
+      </c>
+      <c r="J5" s="169">
+        <v>34766</v>
+      </c>
+      <c r="K5" s="23">
+        <v>38736</v>
+      </c>
+      <c r="L5" s="87">
+        <f>B5</f>
         <v>10</v>
       </c>
-      <c r="C3" s="104">
+      <c r="M5" s="74">
+        <f t="shared" ref="M5:M14" si="3">C5*10</f>
         <v>0</v>
       </c>
-      <c r="D3" s="97">
-        <v>88</v>
-      </c>
-      <c r="E3" s="104">
-        <v>63</v>
-      </c>
-      <c r="F3" s="29">
-        <v>62325</v>
-      </c>
-      <c r="G3" s="30">
-        <v>63175</v>
-      </c>
-      <c r="H3" s="109">
-        <v>64489</v>
-      </c>
-      <c r="I3" s="107">
-        <v>31517</v>
-      </c>
-      <c r="J3" s="31">
-        <v>34766</v>
-      </c>
-      <c r="K3" s="23">
-        <v>38736</v>
-      </c>
-      <c r="L3" s="95">
-        <f>B3</f>
-        <v>10</v>
-      </c>
-      <c r="M3" s="82">
-        <f t="shared" ref="M3:M12" si="3">C3*10</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="80">
-        <f>E3*10000/H3</f>
+      <c r="N5" s="72">
+        <f>E5*10000/H5</f>
         <v>9.7691079098761033</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O5" s="46">
         <f t="shared" si="0"/>
         <v>552.22037587690636</v>
       </c>
-      <c r="P3" s="50">
-        <f t="shared" ref="P3:Q13" si="4">L3</f>
+      <c r="P5" s="170">
+        <f t="shared" ref="P5:Q15" si="4">L5</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q5" s="171">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R5" s="171">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S5" s="172">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T3" s="14">
-        <f t="shared" ref="T3:T13" si="5">AVERAGE(P3:S3)</f>
+      <c r="T5" s="14">
+        <f t="shared" ref="T5:T15" si="5">AVERAGE(P5:S5)</f>
         <v>7.5</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" s="15" customFormat="1">
+      <c r="A6" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="89">
+        <v>10</v>
+      </c>
+      <c r="C6" s="96">
         <v>1</v>
       </c>
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="97">
+      <c r="D6" s="89">
+        <v>78</v>
+      </c>
+      <c r="E6" s="96">
+        <v>57</v>
+      </c>
+      <c r="F6" s="29">
+        <v>95683</v>
+      </c>
+      <c r="G6" s="30">
+        <v>97335</v>
+      </c>
+      <c r="H6" s="99">
+        <v>98908</v>
+      </c>
+      <c r="I6" s="168">
+        <v>17397</v>
+      </c>
+      <c r="J6" s="169">
+        <v>17457</v>
+      </c>
+      <c r="K6" s="22">
+        <v>17344</v>
+      </c>
+      <c r="L6" s="87">
+        <f t="shared" ref="L6:L15" si="6">B6</f>
         <v>10</v>
       </c>
-      <c r="C4" s="104">
-        <v>1</v>
-      </c>
-      <c r="D4" s="97">
-        <v>78</v>
-      </c>
-      <c r="E4" s="104">
-        <v>57</v>
-      </c>
-      <c r="F4" s="29">
-        <v>95683</v>
-      </c>
-      <c r="G4" s="30">
-        <v>97335</v>
-      </c>
-      <c r="H4" s="109">
-        <v>98908</v>
-      </c>
-      <c r="I4" s="107">
-        <v>17397</v>
-      </c>
-      <c r="J4" s="31">
-        <v>17457</v>
-      </c>
-      <c r="K4" s="22">
-        <v>17344</v>
-      </c>
-      <c r="L4" s="95">
-        <f t="shared" ref="L4:L13" si="6">B4</f>
-        <v>10</v>
-      </c>
-      <c r="M4" s="82">
+      <c r="M6" s="74">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N4" s="80">
-        <f t="shared" ref="N4:N13" si="7">E4*10000/H4</f>
+      <c r="N6" s="72">
+        <f t="shared" ref="N6:N15" si="7">E6*10000/H6</f>
         <v>5.7629312088000972</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O6" s="46">
         <f t="shared" si="0"/>
         <v>178.84122527762099</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P6" s="170">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q6" s="171">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R6" s="171">
         <f t="shared" si="1"/>
         <v>5.8991376305445948</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S6" s="172">
         <f t="shared" si="2"/>
         <v>3.2385843241229098</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T6" s="14">
         <f t="shared" si="5"/>
         <v>7.2844304886668763</v>
       </c>
-      <c r="U4" s="61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="15" customFormat="1">
-      <c r="A5" s="92" t="s">
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1">
+      <c r="A7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B7" s="89">
         <v>10</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C7" s="96">
         <v>1</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D7" s="89">
         <v>16</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E7" s="96">
         <v>20</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F7" s="29">
         <v>44233</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G7" s="30">
         <v>44779</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H7" s="99">
         <v>45867</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I7" s="168">
         <v>5146</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J7" s="169">
         <v>5821</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K7" s="22">
         <v>6192</v>
       </c>
-      <c r="L5" s="95">
+      <c r="L7" s="87">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M7" s="74">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N7" s="72">
         <f t="shared" si="7"/>
         <v>4.3604334270826524</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O7" s="46">
         <f t="shared" si="0"/>
         <v>127.11048987016898</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P7" s="170">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q7" s="171">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R7" s="171">
         <f t="shared" si="1"/>
         <v>4.4634919250656058</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S7" s="172">
         <f t="shared" si="2"/>
         <v>2.3018073114075523</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T7" s="14">
         <f t="shared" si="5"/>
         <v>6.6913248091182886</v>
       </c>
-      <c r="U5" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="15" customFormat="1">
-      <c r="A6" s="92" t="s">
+      <c r="U7" s="53"/>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1">
+      <c r="A8" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B8" s="89">
         <v>10</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C8" s="96">
         <v>1</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D8" s="89">
         <v>25</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E8" s="96">
         <v>25</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F8" s="29">
         <v>46705</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G8" s="30">
         <v>47585</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H8" s="99">
         <v>49836</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I8" s="168">
         <v>9835</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J8" s="169">
         <v>9544</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K8" s="22">
         <v>8546</v>
       </c>
-      <c r="L6" s="95">
+      <c r="L8" s="87">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M8" s="74">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N8" s="72">
         <f t="shared" si="7"/>
         <v>5.0164539690183805</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O8" s="46">
         <f t="shared" si="0"/>
         <v>194.20896472878056</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P8" s="170">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q8" s="171">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R8" s="171">
         <f t="shared" si="1"/>
         <v>5.1350174604448622</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S8" s="172">
         <f t="shared" si="2"/>
         <v>3.5168742989677555</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T8" s="14">
         <f t="shared" si="5"/>
         <v>7.1629729398531552</v>
       </c>
-      <c r="U6" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="15" customFormat="1">
-      <c r="A7" s="92" t="s">
+      <c r="U8" s="53"/>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1">
+      <c r="A9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B9" s="89">
         <v>7</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C9" s="96">
         <v>1</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D9" s="89">
         <v>18</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E9" s="96">
         <v>18</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F9" s="29">
         <v>46124</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G9" s="30">
         <v>46252</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H9" s="99">
         <v>46122</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I9" s="168">
         <v>4968</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J9" s="169">
         <v>3912</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K9" s="22">
         <v>2931</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L9" s="87">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M9" s="74">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N9" s="72">
         <f t="shared" si="7"/>
         <v>3.9026928580720699</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O9" s="46">
         <f t="shared" si="0"/>
         <v>85.279542404066689</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P9" s="170">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q9" s="171">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R9" s="171">
         <f t="shared" si="1"/>
         <v>3.9949326940350747</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S9" s="172">
         <f t="shared" si="2"/>
         <v>1.5443027119136232</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T9" s="14">
         <f t="shared" si="5"/>
         <v>5.6348088514871746</v>
       </c>
-      <c r="U7" s="61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="15" customFormat="1">
-      <c r="A8" s="92" t="s">
+      <c r="U9" s="53"/>
+    </row>
+    <row r="10" spans="1:22" s="15" customFormat="1">
+      <c r="A10" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B10" s="89">
         <v>10</v>
       </c>
-      <c r="C8" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="97">
+      <c r="C10" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="89">
         <v>23</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E10" s="96">
         <v>23</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F10" s="29">
         <v>56880</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G10" s="30">
         <v>58096</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H10" s="99">
         <v>59156</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I10" s="168">
         <v>6860</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J10" s="169">
         <v>6850</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K10" s="23">
         <v>6774</v>
       </c>
-      <c r="L8" s="95">
+      <c r="L10" s="87">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M10" s="74">
         <v>5</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N10" s="72">
         <f t="shared" si="7"/>
         <v>3.8880248833592534</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O10" s="46">
         <f t="shared" si="0"/>
         <v>117.67461892249072</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P10" s="170">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q10" s="171">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R10" s="171">
         <f t="shared" si="1"/>
         <v>3.9799180429040457</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S10" s="172">
         <f t="shared" si="2"/>
         <v>2.1309358376287295</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T10" s="14">
         <f t="shared" si="5"/>
         <v>5.277713470133194</v>
       </c>
-      <c r="U8" s="61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="15" customFormat="1">
-      <c r="A9" s="132" t="s">
+      <c r="U10" s="53"/>
+    </row>
+    <row r="11" spans="1:22" s="15" customFormat="1">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B11" s="123">
         <v>3</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C11" s="124">
         <v>1</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D11" s="123">
         <v>20</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E11" s="124">
         <v>21</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F11" s="125">
         <v>35631</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G11" s="126">
         <v>37542</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H11" s="127">
         <v>39703</v>
       </c>
-      <c r="I9" s="138">
+      <c r="I11" s="173">
         <v>2849</v>
       </c>
-      <c r="J9" s="139">
+      <c r="J11" s="174">
         <v>3229</v>
       </c>
-      <c r="K9" s="140">
+      <c r="K11" s="128">
         <v>4513</v>
       </c>
-      <c r="L9" s="141">
+      <c r="L11" s="129">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M9" s="142">
+      <c r="M11" s="130">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N9" s="143">
+      <c r="N11" s="131">
         <f t="shared" si="7"/>
         <v>5.2892728509180662</v>
       </c>
-      <c r="O9" s="144">
+      <c r="O11" s="132">
         <f t="shared" si="0"/>
         <v>93.212596831661472</v>
       </c>
-      <c r="P9" s="145">
+      <c r="P11" s="175">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="146">
+      <c r="Q11" s="176">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R9" s="146">
+      <c r="R11" s="176">
         <f t="shared" si="1"/>
         <v>5.4142843949659554</v>
       </c>
-      <c r="S9" s="147">
+      <c r="S11" s="177">
         <f t="shared" si="2"/>
         <v>1.6879601134536764</v>
       </c>
-      <c r="T9" s="148">
+      <c r="T11" s="133">
         <f t="shared" si="5"/>
         <v>5.0255611271049077</v>
       </c>
-      <c r="U9" s="61" t="s">
+      <c r="U11" s="53"/>
+    </row>
+    <row r="12" spans="1:22" s="15" customFormat="1">
+      <c r="A12" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="89">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="15" customFormat="1">
-      <c r="A10" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="97">
-        <v>7</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="97">
+      <c r="C12" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="89">
         <v>29</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E12" s="96">
         <v>30</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F12" s="29">
         <v>51737</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G12" s="30">
         <v>54250</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H12" s="99">
         <v>56769</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I12" s="168">
         <v>6836</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J12" s="169">
         <v>6665</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K12" s="22">
         <v>6692</v>
       </c>
-      <c r="L10" s="95">
+      <c r="L12" s="87">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M12" s="74">
         <v>5</v>
       </c>
-      <c r="N10" s="80">
+      <c r="N12" s="72">
         <f t="shared" si="7"/>
         <v>5.2845743275379169</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O12" s="46">
         <f t="shared" si="0"/>
         <v>124.2893970813019</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P12" s="170">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q12" s="171">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R12" s="171">
         <f t="shared" si="1"/>
         <v>5.4094748223586144</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S12" s="172">
         <f t="shared" si="2"/>
         <v>2.2507209532776611</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T12" s="14">
         <f t="shared" si="5"/>
         <v>4.9150489439090688</v>
       </c>
-      <c r="U10" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="15" customFormat="1">
-      <c r="A11" s="92" t="s">
+      <c r="U12" s="53"/>
+    </row>
+    <row r="13" spans="1:22" s="15" customFormat="1">
+      <c r="A13" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B13" s="89">
         <v>2</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C13" s="96">
         <v>0</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D13" s="89">
         <v>28</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E13" s="96">
         <v>28</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F13" s="29">
         <v>58268</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G13" s="30">
         <v>59030</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H13" s="99">
         <v>59364</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I13" s="168">
         <v>9514</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J13" s="169">
         <v>9325</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K13" s="22">
         <v>9717</v>
       </c>
-      <c r="L11" s="95">
+      <c r="L13" s="87">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M13" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N13" s="72">
         <f t="shared" si="7"/>
         <v>4.7166632976214542</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O13" s="46">
         <f t="shared" si="0"/>
         <v>161.64520053058968</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P13" s="170">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q13" s="171">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R13" s="171">
         <f t="shared" si="1"/>
         <v>4.8281412603223801</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S13" s="172">
         <f t="shared" si="2"/>
         <v>2.9271864565646069</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T13" s="14">
         <f t="shared" si="5"/>
         <v>2.4388319292217466</v>
       </c>
-      <c r="U11" s="61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="15" customFormat="1">
-      <c r="A12" s="92" t="s">
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:22" s="15" customFormat="1">
+      <c r="A14" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B14" s="89">
         <v>7</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C14" s="96">
         <v>0</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D14" s="89">
         <v>35</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E14" s="96">
         <v>37</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F14" s="29">
         <v>54972</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G14" s="30">
         <v>57105</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H14" s="99">
         <v>58482</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I14" s="168">
         <v>23954</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J14" s="169">
         <v>17659</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K14" s="22">
         <v>8718</v>
       </c>
-      <c r="L12" s="95">
+      <c r="L14" s="87">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M14" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N14" s="72">
         <f t="shared" si="7"/>
         <v>6.3267330118668994</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O14" s="46">
         <f t="shared" si="0"/>
         <v>298.0193291923004</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P14" s="170">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q14" s="171">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R14" s="171">
         <f t="shared" si="1"/>
         <v>6.4762648444807054</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S14" s="172">
         <f t="shared" si="2"/>
         <v>5.3967463391595478</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T14" s="14">
         <f t="shared" si="5"/>
         <v>4.7182527959100637</v>
       </c>
-      <c r="U12" s="61" t="s">
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1">
+      <c r="A15" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="90">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1">
-      <c r="A13" s="93" t="s">
+      <c r="C15" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="90">
+        <v>12</v>
+      </c>
+      <c r="E15" s="97">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
-        <v>10</v>
-      </c>
-      <c r="C13" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="98">
-        <v>12</v>
-      </c>
-      <c r="E13" s="105">
-        <v>11</v>
-      </c>
-      <c r="F13" s="32">
+      <c r="F15" s="31">
         <v>26455</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G15" s="32">
         <v>27635</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H15" s="100">
         <v>29074</v>
       </c>
-      <c r="I13" s="108">
+      <c r="I15" s="178">
         <v>3691</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J15" s="179">
         <v>3380</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K15" s="63">
         <v>3857</v>
       </c>
-      <c r="L13" s="96">
+      <c r="L15" s="88">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M15" s="75">
         <v>5</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N15" s="73">
         <f t="shared" si="7"/>
         <v>3.7834491298067001</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O15" s="48">
         <f t="shared" si="0"/>
         <v>131.4966968512816</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P15" s="180">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q15" s="181">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R15" s="181">
         <f t="shared" si="1"/>
         <v>3.8728706497159409</v>
       </c>
-      <c r="S13" s="53">
+      <c r="S15" s="182">
         <f t="shared" si="2"/>
         <v>2.3812358724081761</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T15" s="33">
         <f t="shared" si="5"/>
         <v>5.3135266305310296</v>
       </c>
-      <c r="U13" s="61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" thickBot="1">
-      <c r="A14" s="99" t="s">
+      <c r="U15" s="53"/>
+    </row>
+    <row r="16" spans="1:22" s="15" customFormat="1" thickBot="1">
+      <c r="A16" s="83"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:21" s="15" customFormat="1" thickBot="1">
+      <c r="A17" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="100">
-        <f t="shared" ref="I14:T14" si="8">MAX(I2:I13)</f>
+      <c r="B17" s="80"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="92">
+        <f>MAX(I4:I15)</f>
         <v>31517</v>
       </c>
-      <c r="J14" s="89">
-        <f t="shared" si="8"/>
+      <c r="J17" s="81">
+        <f>MAX(J4:J15)</f>
         <v>34766</v>
       </c>
-      <c r="K14" s="101">
-        <f t="shared" si="8"/>
+      <c r="K17" s="93">
+        <f>MAX(K4:K15)</f>
         <v>38736</v>
       </c>
-      <c r="L14" s="102">
+      <c r="L17" s="94">
+        <f t="shared" ref="L17:M17" si="8">MAX(L4:L15)</f>
+        <v>10</v>
+      </c>
+      <c r="M17" s="81">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="M14" s="89">
-        <f t="shared" si="8"/>
+      <c r="N17" s="82">
+        <f>MAX(N4:N15)</f>
+        <v>9.7691079098761033</v>
+      </c>
+      <c r="O17" s="93">
+        <f>MAX(O4:O15)</f>
+        <v>552.22037587690636</v>
+      </c>
+      <c r="P17" s="94">
+        <f t="shared" ref="P17:S17" si="9">MAX(P4:P15)</f>
         <v>10</v>
       </c>
-      <c r="N14" s="90">
-        <f t="shared" si="8"/>
-        <v>9.7691079098761033</v>
-      </c>
-      <c r="O14" s="101">
-        <f t="shared" si="8"/>
-        <v>552.22037587690636</v>
-      </c>
-      <c r="P14" s="102">
-        <f t="shared" si="8"/>
+      <c r="Q17" s="81">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="Q14" s="89">
-        <f t="shared" si="8"/>
+      <c r="R17" s="81">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="R14" s="89">
-        <f t="shared" si="8"/>
+      <c r="S17" s="93">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="S14" s="101">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="T14" s="103">
-        <f t="shared" si="8"/>
+      <c r="T17" s="95">
+        <f>MAX(T4:T15)</f>
         <v>7.5</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="15" customFormat="1" ht="13.8"/>
-    <row r="16" spans="1:22" s="15" customFormat="1" ht="13.8"/>
-    <row r="17" spans="1:4" s="15" customFormat="1" ht="13.8"/>
-    <row r="20" spans="1:4">
-      <c r="A20" s="112"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="86"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="86"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="112"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="86"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="86"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="86"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="86"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="86"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="86"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="86"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="86"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="102"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="78"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="78"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="102"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="78"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="B28" s="78"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="78"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" s="78"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="78"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="B30" s="78"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="78"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="78"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I13">
-    <cfRule type="cellIs" dxfId="23" priority="138" operator="equal">
-      <formula>$I$14</formula>
+  <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>$I$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
-    <cfRule type="cellIs" dxfId="22" priority="139" operator="equal">
-      <formula>$J$14</formula>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>$J$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N13">
-    <cfRule type="cellIs" dxfId="21" priority="140" operator="equal">
-      <formula>$K$14</formula>
+  <conditionalFormatting sqref="K4:N15">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>$K$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L13">
-    <cfRule type="colorScale" priority="141">
+  <conditionalFormatting sqref="L4:L15">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5697,12 +5876,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="142" operator="equal">
-      <formula>$L$14</formula>
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>$L$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="M4:M15">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5712,12 +5891,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="144" operator="equal">
-      <formula>$M$14</formula>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>$M$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
-    <cfRule type="colorScale" priority="145">
+  <conditionalFormatting sqref="N4:N15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5727,12 +5906,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="146" operator="equal">
-      <formula>$N$14</formula>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>$N$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="O4:O15">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5742,18 +5921,18 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="148" operator="equal">
-      <formula>$O$14</formula>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T13">
+  <conditionalFormatting sqref="P4:T15">
     <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T13">
-    <cfRule type="cellIs" dxfId="15" priority="149" operator="equal">
-      <formula>$T$14</formula>
+  <conditionalFormatting sqref="T4:T15">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>$T$17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5765,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FA2C2-69C4-4F73-8C4E-17B507B20ACA}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5782,157 +5961,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A1" s="113"/>
-      <c r="B1" s="209" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="193" t="s">
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="181" t="s">
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="175" t="s">
-        <v>67</v>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="160" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.7" customHeight="1">
-      <c r="A2" s="190" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="208" t="s">
+      <c r="A2" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="204">
+      <c r="C2" s="198"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="211">
         <v>2018</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="208">
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="196">
         <v>2019</v>
       </c>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="204">
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="211">
         <v>2020</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="208" t="s">
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="205"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="198" t="s">
+      <c r="R2" s="198"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196" t="s">
+      <c r="U2" s="202"/>
+      <c r="V2" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="172" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="188" t="s">
+      <c r="W2" s="202"/>
+      <c r="X2" s="157" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="184" t="s">
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="173" t="s">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="176"/>
+      <c r="AD2" s="161"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="202" t="s">
+      <c r="A3" s="225"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200" t="s">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="201"/>
-      <c r="I3" s="199" t="s">
+      <c r="H3" s="208"/>
+      <c r="I3" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200" t="s">
+      <c r="J3" s="209"/>
+      <c r="K3" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="201"/>
-      <c r="M3" s="202" t="s">
+      <c r="L3" s="208"/>
+      <c r="M3" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200" t="s">
+      <c r="N3" s="207"/>
+      <c r="O3" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="199" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="200"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="129"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="206" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="207"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="220"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="119"/>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A4" s="192"/>
-      <c r="B4" s="169" t="s">
+      <c r="A4" s="226"/>
+      <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="152" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5968,7 +6147,7 @@
       <c r="O4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="5">
@@ -5980,45 +6159,43 @@
       <c r="S4" s="18">
         <v>2020</v>
       </c>
-      <c r="T4" s="84" t="s">
-        <v>60</v>
+      <c r="T4" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="U4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="157" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="172" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Z4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="173" t="s">
+      <c r="AC4" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="AD4" s="175" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="177" t="s">
-        <v>70</v>
-      </c>
+      <c r="AD4" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="162"/>
     </row>
     <row r="5" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="10">
@@ -6030,7 +6207,7 @@
       <c r="D5" s="24">
         <v>32555</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="106">
         <v>53.3</v>
       </c>
       <c r="F5" s="3">
@@ -6054,7 +6231,7 @@
       <c r="L5" s="20">
         <v>333</v>
       </c>
-      <c r="M5" s="116">
+      <c r="M5" s="106">
         <v>69.7</v>
       </c>
       <c r="N5" s="3">
@@ -6063,7 +6240,7 @@
       <c r="O5" s="2">
         <v>66.7</v>
       </c>
-      <c r="P5" s="118">
+      <c r="P5" s="108">
         <v>341</v>
       </c>
       <c r="Q5" s="21">
@@ -6075,23 +6252,23 @@
       <c r="S5" s="22">
         <v>102403</v>
       </c>
-      <c r="T5" s="114">
+      <c r="T5" s="104">
         <f>(E5/B5+I5/C5+M5/D5)/3*1000000</f>
         <v>1999.880027430233</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="51">
         <f>(F5/B5+J5/C5+N5/D5)/3*1000</f>
         <v>10.806526176248916</v>
       </c>
-      <c r="V5" s="59">
+      <c r="V5" s="51">
         <f>(G5/B5+K5/C5+O5/D5)/3*1000000</f>
         <v>1845.408549025562</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="51">
         <f>(H5/B5+L5/C5+P5/D5)/3*1000</f>
         <v>12.395173580917833</v>
       </c>
-      <c r="X5" s="78">
+      <c r="X5" s="70">
         <f>(S5/D5+R5/C5+Q5/B5)/3*1000</f>
         <v>4538.0757611910212</v>
       </c>
@@ -6115,16 +6292,14 @@
         <f t="shared" ref="AC5:AC16" si="4">X5*10/$X$18</f>
         <v>8.0554964733594279</v>
       </c>
-      <c r="AD5" s="62">
+      <c r="AD5" s="54">
         <f>AVERAGE(Y5:AC5)</f>
         <v>6.0023474540729795</v>
       </c>
-      <c r="AE5" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="AE5" s="53"/>
     </row>
     <row r="6" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="84" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10">
@@ -6136,7 +6311,7 @@
       <c r="D6" s="24">
         <v>64489</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="106">
         <v>117.8</v>
       </c>
       <c r="F6" s="3">
@@ -6160,7 +6335,7 @@
       <c r="L6" s="20">
         <v>562</v>
       </c>
-      <c r="M6" s="116">
+      <c r="M6" s="106">
         <v>129</v>
       </c>
       <c r="N6" s="3">
@@ -6169,7 +6344,7 @@
       <c r="O6" s="2">
         <v>195.3</v>
       </c>
-      <c r="P6" s="118">
+      <c r="P6" s="108">
         <v>755</v>
       </c>
       <c r="Q6" s="21">
@@ -6181,23 +6356,23 @@
       <c r="S6" s="23">
         <v>117224</v>
       </c>
-      <c r="T6" s="114">
+      <c r="T6" s="104">
         <f t="shared" ref="T6:T16" si="5">(E6/B6+I6/C6+M6/D6)/3*1000000</f>
         <v>1763.7679997735411</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="51">
         <f t="shared" ref="U6:U16" si="6">(F6/B6+J6/C6+N6/D6)/3*1000</f>
         <v>5.0831017053240206</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="51">
         <f t="shared" ref="V6:V16" si="7">(G6/B6+K6/C6+O6/D6)/3*1000000</f>
         <v>2400.0620217524829</v>
       </c>
-      <c r="W6" s="59">
+      <c r="W6" s="51">
         <f t="shared" ref="W6:W16" si="8">(H6/B6+L6/C6+P6/D6)/3*1000</f>
         <v>8.5845893904130879</v>
       </c>
-      <c r="X6" s="78">
+      <c r="X6" s="70">
         <f t="shared" ref="X6:X16" si="9">(S6/D6+R6/C6+Q6/B6)/3*1000</f>
         <v>1812.6784705182147</v>
       </c>
@@ -6221,16 +6396,14 @@
         <f t="shared" si="4"/>
         <v>3.2176688523952115</v>
       </c>
-      <c r="AD6" s="62">
+      <c r="AD6" s="54">
         <f t="shared" ref="AD6:AD16" si="10">AVERAGE(Y6:AC6)</f>
         <v>4.4885580543160133</v>
       </c>
-      <c r="AE6" s="61" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="53"/>
     </row>
     <row r="7" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10">
@@ -6242,7 +6415,7 @@
       <c r="D7" s="24">
         <v>98908</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="106">
         <v>168.5</v>
       </c>
       <c r="F7" s="3">
@@ -6266,7 +6439,7 @@
       <c r="L7" s="20">
         <v>1329</v>
       </c>
-      <c r="M7" s="116">
+      <c r="M7" s="106">
         <v>95</v>
       </c>
       <c r="N7" s="3">
@@ -6275,7 +6448,7 @@
       <c r="O7" s="2">
         <v>144.1</v>
       </c>
-      <c r="P7" s="118">
+      <c r="P7" s="108">
         <v>507</v>
       </c>
       <c r="Q7" s="21">
@@ -6287,23 +6460,23 @@
       <c r="S7" s="22">
         <v>120554</v>
       </c>
-      <c r="T7" s="114">
+      <c r="T7" s="104">
         <f t="shared" si="5"/>
         <v>1177.7139506424073</v>
       </c>
-      <c r="U7" s="59">
+      <c r="U7" s="51">
         <f t="shared" si="6"/>
         <v>5.1490784725260363</v>
       </c>
-      <c r="V7" s="59">
+      <c r="V7" s="51">
         <f t="shared" si="7"/>
         <v>2106.9805232035023</v>
       </c>
-      <c r="W7" s="59">
+      <c r="W7" s="51">
         <f t="shared" si="8"/>
         <v>8.9075820703456259</v>
       </c>
-      <c r="X7" s="78">
+      <c r="X7" s="70">
         <f t="shared" si="9"/>
         <v>1533.7836335969278</v>
       </c>
@@ -6327,16 +6500,14 @@
         <f t="shared" si="4"/>
         <v>2.7226051968982068</v>
       </c>
-      <c r="AD7" s="62">
+      <c r="AD7" s="54">
         <f t="shared" si="10"/>
         <v>3.9849696598111906</v>
       </c>
-      <c r="AE7" s="61" t="s">
-        <v>2</v>
-      </c>
+      <c r="AE7" s="53"/>
     </row>
     <row r="8" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10">
@@ -6348,7 +6519,7 @@
       <c r="D8" s="24">
         <v>45867</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="106">
         <v>32.5</v>
       </c>
       <c r="F8" s="3">
@@ -6372,7 +6543,7 @@
       <c r="L8" s="20">
         <v>370</v>
       </c>
-      <c r="M8" s="116">
+      <c r="M8" s="106">
         <v>47.6</v>
       </c>
       <c r="N8" s="3">
@@ -6381,7 +6552,7 @@
       <c r="O8" s="2">
         <v>19</v>
       </c>
-      <c r="P8" s="118">
+      <c r="P8" s="108">
         <v>147</v>
       </c>
       <c r="Q8" s="21">
@@ -6393,23 +6564,23 @@
       <c r="S8" s="22">
         <v>54749</v>
       </c>
-      <c r="T8" s="114">
+      <c r="T8" s="104">
         <f t="shared" si="5"/>
         <v>772.47566193996852</v>
       </c>
-      <c r="U8" s="59">
+      <c r="U8" s="51">
         <f t="shared" si="6"/>
         <v>4.8482331726313044</v>
       </c>
-      <c r="V8" s="59">
+      <c r="V8" s="51">
         <f t="shared" si="7"/>
         <v>1141.0937866262964</v>
       </c>
-      <c r="W8" s="59">
+      <c r="W8" s="51">
         <f t="shared" si="8"/>
         <v>8.1255448292570609</v>
       </c>
-      <c r="X8" s="78">
+      <c r="X8" s="70">
         <f t="shared" si="9"/>
         <v>1340.1118926788158</v>
       </c>
@@ -6433,16 +6604,14 @@
         <f t="shared" si="4"/>
         <v>2.3788202739365469</v>
       </c>
-      <c r="AD8" s="62">
+      <c r="AD8" s="54">
         <f t="shared" si="10"/>
         <v>2.9308201353534828</v>
       </c>
-      <c r="AE8" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="AE8" s="53"/>
     </row>
     <row r="9" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10">
@@ -6454,7 +6623,7 @@
       <c r="D9" s="24">
         <v>49836</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="106">
         <v>168.7</v>
       </c>
       <c r="F9" s="3">
@@ -6478,7 +6647,7 @@
       <c r="L9" s="20">
         <v>50</v>
       </c>
-      <c r="M9" s="116">
+      <c r="M9" s="106">
         <v>59.6</v>
       </c>
       <c r="N9" s="3">
@@ -6487,7 +6656,7 @@
       <c r="O9" s="2">
         <v>30.2</v>
       </c>
-      <c r="P9" s="118">
+      <c r="P9" s="108">
         <v>110</v>
       </c>
       <c r="Q9" s="21">
@@ -6499,23 +6668,23 @@
       <c r="S9" s="22">
         <v>198085</v>
       </c>
-      <c r="T9" s="114">
+      <c r="T9" s="104">
         <f t="shared" si="5"/>
         <v>3486.2986738437016</v>
       </c>
-      <c r="U9" s="59">
+      <c r="U9" s="51">
         <f t="shared" si="6"/>
         <v>14.96963938002197</v>
       </c>
-      <c r="V9" s="59">
+      <c r="V9" s="51">
         <f t="shared" si="7"/>
         <v>655.04055400451841</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W9" s="51">
         <f t="shared" si="8"/>
         <v>2.7203687772287877</v>
       </c>
-      <c r="X9" s="78">
+      <c r="X9" s="70">
         <f t="shared" si="9"/>
         <v>3972.9488937759338</v>
       </c>
@@ -6539,16 +6708,14 @@
         <f t="shared" si="4"/>
         <v>7.0523449776540925</v>
       </c>
-      <c r="AD9" s="62">
+      <c r="AD9" s="54">
         <f t="shared" si="10"/>
         <v>4.6654101227217426</v>
       </c>
-      <c r="AE9" s="61" t="s">
-        <v>4</v>
-      </c>
+      <c r="AE9" s="53"/>
     </row>
     <row r="10" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="10">
@@ -6560,7 +6727,7 @@
       <c r="D10" s="24">
         <v>46122</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="106">
         <v>27.8</v>
       </c>
       <c r="F10" s="3">
@@ -6584,7 +6751,7 @@
       <c r="L10" s="20">
         <v>118</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="106">
         <v>50.4</v>
       </c>
       <c r="N10" s="3">
@@ -6593,7 +6760,7 @@
       <c r="O10" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="P10" s="118">
+      <c r="P10" s="108">
         <v>97</v>
       </c>
       <c r="Q10" s="21">
@@ -6605,23 +6772,23 @@
       <c r="S10" s="22">
         <v>48599</v>
       </c>
-      <c r="T10" s="114">
+      <c r="T10" s="104">
         <f t="shared" si="5"/>
         <v>1233.9589392610053</v>
       </c>
-      <c r="U10" s="59">
+      <c r="U10" s="51">
         <f t="shared" si="6"/>
         <v>4.8421624620451018</v>
       </c>
-      <c r="V10" s="59">
+      <c r="V10" s="51">
         <f t="shared" si="7"/>
         <v>499.63756818481164</v>
       </c>
-      <c r="W10" s="59">
+      <c r="W10" s="51">
         <f t="shared" si="8"/>
         <v>2.2380080318570723</v>
       </c>
-      <c r="X10" s="78">
+      <c r="X10" s="70">
         <f t="shared" si="9"/>
         <v>1465.5251154046732</v>
       </c>
@@ -6645,16 +6812,14 @@
         <f t="shared" si="4"/>
         <v>2.601440130136488</v>
       </c>
-      <c r="AD10" s="62">
+      <c r="AD10" s="54">
         <f t="shared" si="10"/>
         <v>1.9878669350459137</v>
       </c>
-      <c r="AE10" s="61" t="s">
-        <v>5</v>
-      </c>
+      <c r="AE10" s="53"/>
     </row>
     <row r="11" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10">
@@ -6666,7 +6831,7 @@
       <c r="D11" s="24">
         <v>59156</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="106">
         <v>87.8</v>
       </c>
       <c r="F11" s="3">
@@ -6690,7 +6855,7 @@
       <c r="L11" s="20">
         <v>655</v>
       </c>
-      <c r="M11" s="116">
+      <c r="M11" s="106">
         <v>131.69999999999999</v>
       </c>
       <c r="N11" s="3">
@@ -6699,7 +6864,7 @@
       <c r="O11" s="2">
         <v>73.900000000000006</v>
       </c>
-      <c r="P11" s="118">
+      <c r="P11" s="108">
         <v>527</v>
       </c>
       <c r="Q11" s="21">
@@ -6711,23 +6876,23 @@
       <c r="S11" s="23">
         <v>88876</v>
       </c>
-      <c r="T11" s="114">
+      <c r="T11" s="104">
         <f t="shared" si="5"/>
         <v>1982.4492932132787</v>
       </c>
-      <c r="U11" s="59">
+      <c r="U11" s="51">
         <f t="shared" si="6"/>
         <v>12.055783184401129</v>
       </c>
-      <c r="V11" s="59">
+      <c r="V11" s="51">
         <f t="shared" si="7"/>
         <v>1345.4786631638751</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="51">
         <f t="shared" si="8"/>
         <v>8.9721882008008436</v>
       </c>
-      <c r="X11" s="78">
+      <c r="X11" s="70">
         <f t="shared" si="9"/>
         <v>1713.9884499969414</v>
       </c>
@@ -6751,122 +6916,118 @@
         <f t="shared" si="4"/>
         <v>3.0424851062216489</v>
       </c>
-      <c r="AD11" s="62">
+      <c r="AD11" s="54">
         <f t="shared" si="10"/>
         <v>4.3087789953099591</v>
       </c>
-      <c r="AE11" s="61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="131" customFormat="1" ht="13.8">
-      <c r="A12" s="132" t="s">
+      <c r="AE11" s="53"/>
+    </row>
+    <row r="12" spans="1:31" s="121" customFormat="1" ht="13.8">
+      <c r="A12" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="149">
+      <c r="B12" s="134">
         <v>35631</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="135">
         <v>37542</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="136">
         <v>39703</v>
       </c>
-      <c r="E12" s="152">
+      <c r="E12" s="137">
         <v>165.5</v>
       </c>
-      <c r="F12" s="153">
+      <c r="F12" s="138">
         <v>913</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="139">
         <v>64.900000000000006</v>
       </c>
-      <c r="H12" s="155">
+      <c r="H12" s="140">
         <v>447</v>
       </c>
-      <c r="I12" s="156">
+      <c r="I12" s="141">
         <v>212.4</v>
       </c>
-      <c r="J12" s="153">
+      <c r="J12" s="138">
         <v>1066</v>
       </c>
-      <c r="K12" s="154">
+      <c r="K12" s="139">
         <v>87.7</v>
       </c>
-      <c r="L12" s="155">
+      <c r="L12" s="140">
         <v>620</v>
       </c>
-      <c r="M12" s="152">
+      <c r="M12" s="137">
         <v>193.1</v>
       </c>
-      <c r="N12" s="153">
+      <c r="N12" s="138">
         <v>1184</v>
       </c>
-      <c r="O12" s="154">
+      <c r="O12" s="139">
         <v>158.6</v>
       </c>
-      <c r="P12" s="157">
+      <c r="P12" s="142">
         <v>857</v>
       </c>
-      <c r="Q12" s="158">
+      <c r="Q12" s="143">
         <v>204743</v>
       </c>
-      <c r="R12" s="159">
+      <c r="R12" s="144">
         <v>198303</v>
       </c>
-      <c r="S12" s="140">
+      <c r="S12" s="128">
         <v>233143</v>
       </c>
-      <c r="T12" s="160">
+      <c r="T12" s="145">
         <f t="shared" si="5"/>
         <v>5055.3691620318386</v>
       </c>
-      <c r="U12" s="161">
+      <c r="U12" s="146">
         <f t="shared" si="6"/>
         <v>27.946681029327571</v>
       </c>
-      <c r="V12" s="161">
+      <c r="V12" s="146">
         <f t="shared" si="7"/>
         <v>2717.3860864345179</v>
       </c>
-      <c r="W12" s="161">
+      <c r="W12" s="146">
         <f t="shared" si="8"/>
         <v>16.881787628860597</v>
       </c>
-      <c r="X12" s="162">
+      <c r="X12" s="147">
         <f t="shared" si="9"/>
         <v>5633.5146768408713</v>
       </c>
-      <c r="Y12" s="163">
+      <c r="Y12" s="148">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Z12" s="164">
+      <c r="Z12" s="149">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AA12" s="164">
+      <c r="AA12" s="149">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB12" s="164">
+      <c r="AB12" s="149">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AC12" s="165">
+      <c r="AC12" s="150">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD12" s="166">
+      <c r="AD12" s="151">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AE12" s="130" t="s">
-        <v>7</v>
-      </c>
+      <c r="AE12" s="120"/>
     </row>
     <row r="13" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="84" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10">
@@ -6878,7 +7039,7 @@
       <c r="D13" s="24">
         <v>56769</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="106">
         <v>80.5</v>
       </c>
       <c r="F13" s="3">
@@ -6902,7 +7063,7 @@
       <c r="L13" s="20">
         <v>614</v>
       </c>
-      <c r="M13" s="116">
+      <c r="M13" s="106">
         <v>79.900000000000006</v>
       </c>
       <c r="N13" s="3">
@@ -6911,7 +7072,7 @@
       <c r="O13" s="2">
         <v>131.6</v>
       </c>
-      <c r="P13" s="118">
+      <c r="P13" s="108">
         <v>641</v>
       </c>
       <c r="Q13" s="21">
@@ -6923,23 +7084,23 @@
       <c r="S13" s="22">
         <v>135459</v>
       </c>
-      <c r="T13" s="114">
+      <c r="T13" s="104">
         <f t="shared" si="5"/>
         <v>1564.7600977536765</v>
       </c>
-      <c r="U13" s="59">
+      <c r="U13" s="51">
         <f t="shared" si="6"/>
         <v>5.8989796782507122</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="51">
         <f t="shared" si="7"/>
         <v>2657.9934692338206</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="51">
         <f t="shared" si="8"/>
         <v>12.252609302536458</v>
       </c>
-      <c r="X13" s="78">
+      <c r="X13" s="70">
         <f t="shared" si="9"/>
         <v>2751.2452200151911</v>
       </c>
@@ -6963,16 +7124,14 @@
         <f t="shared" si="4"/>
         <v>4.8837100421969932</v>
       </c>
-      <c r="AD13" s="62">
+      <c r="AD13" s="54">
         <f t="shared" si="10"/>
         <v>5.4258145777947417</v>
       </c>
-      <c r="AE13" s="61" t="s">
-        <v>8</v>
-      </c>
+      <c r="AE13" s="53"/>
     </row>
     <row r="14" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="84" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10">
@@ -6984,7 +7143,7 @@
       <c r="D14" s="24">
         <v>59364</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="106">
         <v>90.1</v>
       </c>
       <c r="F14" s="3">
@@ -7008,7 +7167,7 @@
       <c r="L14" s="20">
         <v>597</v>
       </c>
-      <c r="M14" s="116">
+      <c r="M14" s="106">
         <v>78.2</v>
       </c>
       <c r="N14" s="3">
@@ -7017,7 +7176,7 @@
       <c r="O14" s="2">
         <v>53.6</v>
       </c>
-      <c r="P14" s="118">
+      <c r="P14" s="108">
         <v>271</v>
       </c>
       <c r="Q14" s="21">
@@ -7029,23 +7188,23 @@
       <c r="S14" s="22">
         <v>68223</v>
       </c>
-      <c r="T14" s="114">
+      <c r="T14" s="104">
         <f t="shared" si="5"/>
         <v>1214.2882489985725</v>
       </c>
-      <c r="U14" s="59">
+      <c r="U14" s="51">
         <f t="shared" si="6"/>
         <v>6.3687282819142252</v>
       </c>
-      <c r="V14" s="59">
+      <c r="V14" s="51">
         <f t="shared" si="7"/>
         <v>1232.2383069175592</v>
       </c>
-      <c r="W14" s="59">
+      <c r="W14" s="51">
         <f t="shared" si="8"/>
         <v>7.129643544251655</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="70">
         <f t="shared" si="9"/>
         <v>1674.3838719181804</v>
       </c>
@@ -7069,16 +7228,14 @@
         <f t="shared" si="4"/>
         <v>2.9721833845600831</v>
       </c>
-      <c r="AD14" s="62">
+      <c r="AD14" s="54">
         <f t="shared" si="10"/>
         <v>3.2821934138046203</v>
       </c>
-      <c r="AE14" s="61" t="s">
-        <v>9</v>
-      </c>
+      <c r="AE14" s="53"/>
     </row>
     <row r="15" spans="1:31" s="15" customFormat="1" ht="13.8">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="84" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="10">
@@ -7090,7 +7247,7 @@
       <c r="D15" s="24">
         <v>58482</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="106">
         <v>134.1</v>
       </c>
       <c r="F15" s="3">
@@ -7114,7 +7271,7 @@
       <c r="L15" s="20">
         <v>165</v>
       </c>
-      <c r="M15" s="116">
+      <c r="M15" s="106">
         <v>220.6</v>
       </c>
       <c r="N15" s="3">
@@ -7123,7 +7280,7 @@
       <c r="O15" s="2">
         <v>137.30000000000001</v>
       </c>
-      <c r="P15" s="118">
+      <c r="P15" s="108">
         <v>501</v>
       </c>
       <c r="Q15" s="21">
@@ -7135,23 +7292,23 @@
       <c r="S15" s="22">
         <v>168862</v>
       </c>
-      <c r="T15" s="114">
+      <c r="T15" s="104">
         <f t="shared" si="5"/>
         <v>3795.4009160944665</v>
       </c>
-      <c r="U15" s="59">
+      <c r="U15" s="51">
         <f t="shared" si="6"/>
         <v>17.373771453354721</v>
       </c>
-      <c r="V15" s="59">
+      <c r="V15" s="51">
         <f t="shared" si="7"/>
         <v>1796.5394097128703</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="51">
         <f t="shared" si="8"/>
         <v>8.2755319517515691</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="70">
         <f t="shared" si="9"/>
         <v>3682.1212591787621</v>
       </c>
@@ -7175,89 +7332,87 @@
         <f t="shared" si="4"/>
         <v>6.5360995229422212</v>
       </c>
-      <c r="AD15" s="62">
+      <c r="AD15" s="54">
         <f t="shared" si="10"/>
         <v>6.3547688573143883</v>
       </c>
-      <c r="AE15" s="61" t="s">
-        <v>10</v>
-      </c>
+      <c r="AE15" s="53"/>
     </row>
     <row r="16" spans="1:31" s="15" customFormat="1" thickBot="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="55">
         <v>26455</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="56">
         <v>27635</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="57">
         <v>29074</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E16" s="107">
         <v>60.7</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="59">
         <v>345</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="60">
         <v>24.2</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="61">
         <v>119</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="58">
         <v>79.400000000000006</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="59">
         <v>424</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="60">
         <v>81.599999999999994</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="61">
         <v>666</v>
       </c>
-      <c r="M16" s="117">
+      <c r="M16" s="107">
         <v>104.9</v>
       </c>
-      <c r="N16" s="67">
+      <c r="N16" s="59">
         <v>692</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="60">
         <v>78.599999999999994</v>
       </c>
-      <c r="P16" s="119">
+      <c r="P16" s="109">
         <v>548</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="47">
         <v>119956</v>
       </c>
-      <c r="R16" s="70">
+      <c r="R16" s="62">
         <v>152495</v>
       </c>
-      <c r="S16" s="71">
+      <c r="S16" s="63">
         <v>112917</v>
       </c>
-      <c r="T16" s="115">
+      <c r="T16" s="105">
         <f t="shared" si="5"/>
         <v>2925.2216828552769</v>
       </c>
-      <c r="U16" s="72">
+      <c r="U16" s="64">
         <f t="shared" si="6"/>
         <v>17.395069959663747</v>
       </c>
-      <c r="V16" s="72">
+      <c r="V16" s="64">
         <f t="shared" si="7"/>
         <v>2190.3281893875819</v>
       </c>
-      <c r="W16" s="72">
+      <c r="W16" s="64">
         <f t="shared" si="8"/>
         <v>15.815511170691211</v>
       </c>
-      <c r="X16" s="79">
+      <c r="X16" s="71">
         <f t="shared" si="9"/>
         <v>4645.4347063573032</v>
       </c>
@@ -7281,16 +7436,14 @@
         <f t="shared" si="4"/>
         <v>8.2460683478015575</v>
       </c>
-      <c r="AD16" s="73">
+      <c r="AD16" s="65">
         <f t="shared" si="10"/>
         <v>7.5371243905670271</v>
       </c>
-      <c r="AE16" s="61" t="s">
-        <v>11</v>
-      </c>
+      <c r="AE16" s="53"/>
     </row>
     <row r="17" spans="1:31" s="15" customFormat="1" thickBot="1">
-      <c r="A17" s="91"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7309,11 +7462,11 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
@@ -7322,125 +7475,120 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:31" s="15" customFormat="1" thickBot="1">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="120">
+      <c r="B18" s="94"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="110">
         <f t="shared" ref="E18:AD18" si="11">MAX(E5:E16)</f>
         <v>168.7</v>
       </c>
-      <c r="F18" s="121">
+      <c r="F18" s="111">
         <f t="shared" si="11"/>
         <v>913</v>
       </c>
-      <c r="G18" s="121">
+      <c r="G18" s="111">
         <f t="shared" si="11"/>
         <v>181.9</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H18" s="112">
         <f t="shared" si="11"/>
         <v>760</v>
       </c>
-      <c r="I18" s="120">
+      <c r="I18" s="110">
         <f t="shared" si="11"/>
         <v>295.5</v>
       </c>
-      <c r="J18" s="121">
+      <c r="J18" s="111">
         <f t="shared" si="11"/>
         <v>1727</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="111">
         <f t="shared" si="11"/>
         <v>288.39999999999998</v>
       </c>
-      <c r="L18" s="122">
+      <c r="L18" s="112">
         <f t="shared" si="11"/>
         <v>1329</v>
       </c>
-      <c r="M18" s="120">
+      <c r="M18" s="110">
         <f t="shared" si="11"/>
         <v>220.6</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="111">
         <f t="shared" si="11"/>
         <v>1184</v>
       </c>
-      <c r="O18" s="121">
+      <c r="O18" s="111">
         <f t="shared" si="11"/>
         <v>195.3</v>
       </c>
-      <c r="P18" s="122">
+      <c r="P18" s="112">
         <f t="shared" si="11"/>
         <v>857</v>
       </c>
-      <c r="Q18" s="123">
+      <c r="Q18" s="113">
         <f t="shared" si="11"/>
         <v>266834</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="114">
         <f t="shared" si="11"/>
         <v>198303</v>
       </c>
-      <c r="S18" s="125">
+      <c r="S18" s="115">
         <f t="shared" si="11"/>
         <v>233143</v>
       </c>
-      <c r="T18" s="126">
+      <c r="T18" s="116">
         <f t="shared" si="11"/>
         <v>5055.3691620318386</v>
       </c>
-      <c r="U18" s="90">
+      <c r="U18" s="82">
         <f t="shared" si="11"/>
         <v>27.946681029327571</v>
       </c>
-      <c r="V18" s="90">
+      <c r="V18" s="82">
         <f t="shared" si="11"/>
         <v>2717.3860864345179</v>
       </c>
-      <c r="W18" s="90">
+      <c r="W18" s="82">
         <f t="shared" si="11"/>
         <v>16.881787628860597</v>
       </c>
-      <c r="X18" s="127">
+      <c r="X18" s="117">
         <f t="shared" si="11"/>
         <v>5633.5146768408713</v>
       </c>
-      <c r="Y18" s="120">
+      <c r="Y18" s="110">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="Z18" s="121">
+      <c r="Z18" s="111">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AA18" s="121">
+      <c r="AA18" s="111">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AB18" s="121">
+      <c r="AB18" s="111">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AC18" s="122">
+      <c r="AC18" s="112">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AD18" s="128">
+      <c r="AD18" s="118">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AE18" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AA2:AB3"/>
@@ -7458,6 +7606,9 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">
@@ -7575,382 +7726,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8368588A-FD19-4899-A6CF-AD984CFDAC7B}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="43" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="43" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="39" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" style="39" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>41</v>
-      </c>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41">
-        <f>'מדד על תכנון'!T2</f>
+      <c r="B2" s="37">
+        <f>'מדד על תכנון'!T4</f>
         <v>5.655071260436876</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="37">
         <f>'מדד על פיתוח'!AD5</f>
         <v>6.0023474540729795</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="38">
         <f t="shared" ref="D2:D13" si="0">AVERAGE(A2:C2)</f>
         <v>5.8287093572549278</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
-        <f>'מדד על תכנון'!T3</f>
+      <c r="B3" s="37">
+        <f>'מדד על תכנון'!T5</f>
         <v>7.5</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="37">
         <f>'מדד על פיתוח'!AD6</f>
         <v>4.4885580543160133</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="38">
         <f t="shared" si="0"/>
         <v>5.9942790271580062</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
-        <f>'מדד על תכנון'!T4</f>
+      <c r="B4" s="37">
+        <f>'מדד על תכנון'!T6</f>
         <v>7.2844304886668763</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <f>'מדד על פיתוח'!AD7</f>
         <v>3.9849696598111906</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="38">
         <f t="shared" si="0"/>
         <v>5.6347000742390332</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41">
-        <f>'מדד על תכנון'!T5</f>
+      <c r="B5" s="37">
+        <f>'מדד על תכנון'!T7</f>
         <v>6.6913248091182886</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <f>'מדד על פיתוח'!AD8</f>
         <v>2.9308201353534828</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="38">
         <f t="shared" si="0"/>
         <v>4.8110724722358853</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41">
-        <f>'מדד על תכנון'!T6</f>
+      <c r="B6" s="37">
+        <f>'מדד על תכנון'!T8</f>
         <v>7.1629729398531552</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <f>'מדד על פיתוח'!AD9</f>
         <v>4.6654101227217426</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="38">
         <f t="shared" si="0"/>
         <v>5.9141915312874485</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41">
-        <f>'מדד על תכנון'!T7</f>
+      <c r="B7" s="37">
+        <f>'מדד על תכנון'!T9</f>
         <v>5.6348088514871746</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <f>'מדד על פיתוח'!AD10</f>
         <v>1.9878669350459137</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="38">
         <f t="shared" si="0"/>
         <v>3.8113378932665443</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41">
-        <f>'מדד על תכנון'!T8</f>
+      <c r="B8" s="37">
+        <f>'מדד על תכנון'!T10</f>
         <v>5.277713470133194</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <f>'מדד על פיתוח'!AD11</f>
         <v>4.3087789953099591</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="38">
         <f t="shared" si="0"/>
         <v>4.793246232721577</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41">
-        <f>'מדד על תכנון'!T9</f>
+      <c r="B9" s="37">
+        <f>'מדד על תכנון'!T11</f>
         <v>5.0255611271049077</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <f>'מדד על פיתוח'!AD12</f>
         <v>10</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <f t="shared" si="0"/>
         <v>7.5127805635524538</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="41">
-        <f>'מדד על תכנון'!T10</f>
+      <c r="B10" s="37">
+        <f>'מדד על תכנון'!T12</f>
         <v>4.9150489439090688</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="37">
         <f>'מדד על פיתוח'!AD13</f>
         <v>5.4258145777947417</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <f t="shared" si="0"/>
         <v>5.1704317608519048</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="41">
-        <f>'מדד על תכנון'!T11</f>
+      <c r="B11" s="37">
+        <f>'מדד על תכנון'!T13</f>
         <v>2.4388319292217466</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <f>'מדד על פיתוח'!AD14</f>
         <v>3.2821934138046203</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>2.8605126715131837</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41">
-        <f>'מדד על תכנון'!T12</f>
+      <c r="B12" s="37">
+        <f>'מדד על תכנון'!T14</f>
         <v>4.7182527959100637</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="37">
         <f>'מדד על פיתוח'!AD15</f>
         <v>6.3547688573143883</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>5.5365108266122256</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41">
-        <f>'מדד על תכנון'!T13</f>
+      <c r="B13" s="37">
+        <f>'מדד על תכנון'!T15</f>
         <v>5.3135266305310296</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="37">
         <f>'מדד על פיתוח'!AD16</f>
         <v>7.5371243905670271</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="38">
         <f t="shared" si="0"/>
         <v>6.4253255105490279</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="44">
+      <c r="A15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="40">
         <f>MAX(B2:B13)</f>
         <v>7.5</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="40">
         <f>MAX(C2:C13)</f>
         <v>10</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="40">
         <f>MAX(D2:D13)</f>
         <v>7.5127805635524538</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="44">
+      <c r="A17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="40">
         <f>MEDIAN(B2:B13)</f>
         <v>5.4741677410091025</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="40">
         <f>MEDIAN(C2:C13)</f>
         <v>4.5769840885188779</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="40">
         <f>MEDIAN(D2:D13)</f>
         <v>5.5856054504256294</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="44">
+      <c r="A18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="40">
         <f>AVERAGE(B2:B13)</f>
         <v>5.6347952705310318</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <f>AVERAGE(C2:C13)</f>
         <v>5.0807210496760051</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="40">
         <f>AVERAGE(D2:D13)</f>
         <v>5.3577581601035185</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="44">
+      <c r="A19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="40">
         <f>_xlfn.STDEV.P(B2:B13)</f>
         <v>1.348654624703904</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="40">
         <f>_xlfn.STDEV.P(C2:C13)</f>
         <v>2.0929869673987804</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="40">
         <f>_xlfn.STDEV.P(D2:D13)</f>
         <v>1.1586387018413571</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="44">
+      <c r="A20" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="40">
         <f>B18+B19</f>
         <v>6.9834498952349353</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="40">
         <f>C18+C19</f>
         <v>7.1737080170747856</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="40">
         <f>D18+D19</f>
         <v>6.5163968619448758</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="45">
+      <c r="A21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="41">
         <f>1-B9/B20</f>
         <v>0.28036125375023702</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="41">
         <f>1-C9/C20</f>
         <v>-0.39397923308254312</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="41">
         <f>1-D9/D20</f>
         <v>-0.15290408529694721</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="45">
+      <c r="B22" s="41">
         <f>B9/B20</f>
         <v>0.71963874624976298</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="41">
         <f>C9/C20</f>
         <v>1.3939792330825431</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="41">
         <f>D9/D20</f>
         <v>1.1529040852969472</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
@@ -7980,7 +8131,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7991,178 +8142,178 @@
     <row r="1" spans="2:7" ht="30" customHeight="1"/>
     <row r="3" spans="2:7">
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="46"/>
+        <v>42</v>
+      </c>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="46">
+        <v>52</v>
+      </c>
+      <c r="C4" s="42">
         <f>'משאב הון תכנון ופיתוח'!B15</f>
         <v>7.5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="42">
         <f>'משאב הון תכנון ופיתוח'!B9</f>
         <v>5.0255611271049077</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="42">
         <f>'משאב הון תכנון ופיתוח'!B17</f>
         <v>5.4741677410091025</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="46">
+        <v>53</v>
+      </c>
+      <c r="C5" s="42">
         <f>'משאב הון תכנון ופיתוח'!C15</f>
         <v>10</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="42">
         <f>'משאב הון תכנון ופיתוח'!C9</f>
         <v>10</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="42">
         <f>'משאב הון תכנון ופיתוח'!C17</f>
         <v>4.5769840885188779</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="B6" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="42">
         <f>'משאב הון תכנון ופיתוח'!D15</f>
         <v>7.5127805635524538</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="42">
         <f>'משאב הון תכנון ופיתוח'!D9</f>
         <v>7.5127805635524538</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="42">
         <f>'משאב הון תכנון ופיתוח'!D17</f>
         <v>5.5856054504256294</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="46">
+        <v>52</v>
+      </c>
+      <c r="C11" s="42">
         <f>'משאב הון תכנון ופיתוח'!B20</f>
         <v>6.9834498952349353</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="42">
         <f>'משאב הון תכנון ופיתוח'!B9</f>
         <v>5.0255611271049077</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="42">
         <f>'משאב הון תכנון ופיתוח'!B17</f>
         <v>5.4741677410091025</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="44">
         <f>'משאב הון תכנון ופיתוח'!B21</f>
         <v>0.28036125375023702</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="46">
+        <v>53</v>
+      </c>
+      <c r="C12" s="42">
         <f>'משאב הון תכנון ופיתוח'!C20</f>
         <v>7.1737080170747856</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="42">
         <f>'משאב הון תכנון ופיתוח'!C9</f>
         <v>10</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="42">
         <f>'משאב הון תכנון ופיתוח'!C17</f>
         <v>4.5769840885188779</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="44">
         <f>'משאב הון תכנון ופיתוח'!C21</f>
         <v>-0.39397923308254312</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="B13" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="42">
         <f>'משאב הון תכנון ופיתוח'!D20</f>
         <v>6.5163968619448758</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="42">
         <f>'משאב הון תכנון ופיתוח'!D9</f>
         <v>7.5127805635524538</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <f>'משאב הון תכנון ופיתוח'!D17</f>
         <v>5.5856054504256294</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <f>'משאב הון תכנון ופיתוח'!D21</f>
         <v>-0.15290408529694721</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="49"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8185,146 +8336,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="37"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="75">
+      <c r="B4" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="67">
         <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="69">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="69">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C9" s="67">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="77">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="77">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="75">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="75">
+    <row r="10" spans="1:3">
+      <c r="A10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="67">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="67">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="75">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="75">
+    <row r="12" spans="1:3">
+      <c r="A12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="67">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="75">
+    <row r="13" spans="1:3">
+      <c r="A13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="67">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="77">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="75">
-        <v>2022</v>
-      </c>
-    </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="77">
+      <c r="B15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="69">
         <v>2018</v>
       </c>
     </row>

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22737EAD-9062-461F-B360-59907FE9CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C3BC8-9810-4EFE-A3EB-947D4FD46668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="1" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
@@ -1754,52 +1754,91 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,24 +1859,24 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1846,45 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4710,7 +4710,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4726,52 +4726,52 @@
   <sheetData>
     <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A1" s="166"/>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192" t="s">
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="192" t="s">
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="194"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="196"/>
       <c r="T1" s="160" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="17.7" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="196" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="197"/>
-      <c r="F2" s="196" t="s">
+      <c r="E2" s="185"/>
+      <c r="F2" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="197"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="185"/>
       <c r="I2" s="163">
         <v>2018</v>
       </c>
@@ -4784,32 +4784,32 @@
       <c r="L2" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="183" t="s">
+      <c r="N2" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="185" t="s">
+      <c r="O2" s="189" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="183" t="s">
+      <c r="Q2" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="183" t="s">
+      <c r="R2" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="185" t="s">
+      <c r="S2" s="189" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="161"/>
       <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="183" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4843,13 +4843,13 @@
         <v>30</v>
       </c>
       <c r="L3" s="188"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="186"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="190"/>
       <c r="P3" s="188"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="186"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="190"/>
       <c r="T3" s="160" t="s">
         <v>65</v>
       </c>
@@ -5835,11 +5835,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
@@ -5849,6 +5844,11 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I15">
     <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
@@ -5944,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FA2C2-69C4-4F73-8C4E-17B507B20ACA}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5962,149 +5962,149 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="103"/>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="199" t="s">
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="214" t="s">
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="216"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="202"/>
       <c r="AD1" s="160" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.7" customHeight="1">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="211">
+      <c r="C2" s="186"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="224">
         <v>2018</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="196">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="184">
         <v>2019</v>
       </c>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="211">
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="224">
         <v>2020</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="196" t="s">
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="198"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="204" t="s">
+      <c r="R2" s="186"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202" t="s">
+      <c r="U2" s="215"/>
+      <c r="V2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="202"/>
+      <c r="W2" s="215"/>
       <c r="X2" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="221" t="s">
+      <c r="Y2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="217" t="s">
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="218"/>
+      <c r="AB2" s="204"/>
       <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="161"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="225"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
-      <c r="E3" s="209" t="s">
+      <c r="E3" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207" t="s">
+      <c r="F3" s="220"/>
+      <c r="G3" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="208"/>
-      <c r="I3" s="223" t="s">
+      <c r="H3" s="221"/>
+      <c r="I3" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="209"/>
-      <c r="K3" s="207" t="s">
+      <c r="J3" s="219"/>
+      <c r="K3" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="208"/>
-      <c r="M3" s="209" t="s">
+      <c r="L3" s="221"/>
+      <c r="M3" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207" t="s">
+      <c r="N3" s="220"/>
+      <c r="O3" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="206" t="s">
+      <c r="P3" s="222"/>
+      <c r="Q3" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="207"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
       <c r="X3" s="157"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="206"/>
       <c r="AC3" s="159"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="119"/>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A4" s="226"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
@@ -7589,6 +7589,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AA2:AB3"/>
@@ -7605,10 +7609,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C3BC8-9810-4EFE-A3EB-947D4FD46668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158D42F-719A-4EED-A496-1C4DC8CCAADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="1" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1757,6 +1757,45 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1766,44 +1805,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,14 +1883,8 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4713,7 +4713,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
@@ -4724,54 +4724,54 @@
     <col min="21" max="21" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="166"/>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="194" t="s">
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="194" t="s">
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="196"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="189"/>
       <c r="T1" s="160" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="17.7" customHeight="1">
+    <row r="2" spans="1:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="184" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="184" t="s">
+      <c r="E2" s="198"/>
+      <c r="F2" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="185"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="198"/>
       <c r="I2" s="163">
         <v>2018</v>
       </c>
@@ -4781,34 +4781,34 @@
       <c r="K2" s="165">
         <v>2020</v>
       </c>
-      <c r="L2" s="187" t="s">
+      <c r="L2" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="198" t="s">
+      <c r="M2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="198" t="s">
+      <c r="N2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="189" t="s">
+      <c r="O2" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="187" t="s">
+      <c r="P2" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="198" t="s">
+      <c r="Q2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="198" t="s">
+      <c r="R2" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="189" t="s">
+      <c r="S2" s="193" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="161"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="183" t="s">
         <v>64</v>
       </c>
@@ -4842,21 +4842,21 @@
       <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="188"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="190"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="194"/>
       <c r="T3" s="160" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="167"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="U4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="15" customFormat="1">
+    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>1</v>
       </c>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="U5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="15" customFormat="1">
+    <row r="6" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="U6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1">
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>3</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="U7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="15" customFormat="1">
+    <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="U8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="15" customFormat="1">
+    <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="U9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="15" customFormat="1">
+    <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>6</v>
       </c>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="U10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="15" customFormat="1">
+    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="U11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="15" customFormat="1">
+    <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>8</v>
       </c>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="U12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="15" customFormat="1">
+    <row r="13" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
         <v>9</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="U13" s="53"/>
     </row>
-    <row r="14" spans="1:22" s="15" customFormat="1">
+    <row r="14" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>10</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="U14" s="53"/>
     </row>
-    <row r="15" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1">
+    <row r="15" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="85" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="U15" s="53"/>
     </row>
-    <row r="16" spans="1:22" s="15" customFormat="1" thickBot="1">
+    <row r="16" spans="1:22" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -5735,7 +5735,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:21" s="15" customFormat="1" thickBot="1">
+    <row r="17" spans="1:21" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="91" t="s">
         <v>12</v>
       </c>
@@ -5796,39 +5796,39 @@
       </c>
       <c r="U17" s="16"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="102"/>
       <c r="B20" s="78"/>
       <c r="C20" s="79"/>
       <c r="D20" s="78"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B26" s="78"/>
       <c r="C26" s="79"/>
       <c r="D26" s="78"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="102"/>
       <c r="B27" s="78"/>
       <c r="C27" s="79"/>
       <c r="D27" s="78"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="78"/>
       <c r="C28" s="101"/>
       <c r="D28" s="78"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" s="78"/>
       <c r="C29" s="35"/>
       <c r="D29" s="78"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" s="78"/>
       <c r="C30" s="101"/>
       <c r="D30" s="78"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
       <c r="D31" s="78"/>
@@ -5944,11 +5944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FA2C2-69C4-4F73-8C4E-17B507B20ACA}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="19" width="9.44140625" customWidth="1"/>
@@ -5960,151 +5960,151 @@
     <col min="31" max="31" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="212" t="s">
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="200" t="s">
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="203"/>
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="204"/>
       <c r="AD1" s="160" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.7" customHeight="1">
-      <c r="A2" s="209" t="s">
+    <row r="2" spans="1:31" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="224">
+      <c r="C2" s="199"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="200">
         <v>2018</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="184">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="197">
         <v>2019</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="224">
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="200">
         <v>2020</v>
       </c>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="184" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="186"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="217" t="s">
+      <c r="R2" s="199"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215" t="s">
+      <c r="U2" s="217"/>
+      <c r="V2" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="215"/>
+      <c r="W2" s="217"/>
       <c r="X2" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="207" t="s">
+      <c r="Y2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="203" t="s">
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="204"/>
+      <c r="AB2" s="206"/>
       <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="161"/>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="210"/>
+    <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="212"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
-      <c r="E3" s="219" t="s">
+      <c r="E3" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220" t="s">
+      <c r="F3" s="222"/>
+      <c r="G3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="218" t="s">
+      <c r="H3" s="223"/>
+      <c r="I3" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="219"/>
-      <c r="K3" s="220" t="s">
+      <c r="J3" s="221"/>
+      <c r="K3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="221"/>
-      <c r="M3" s="219" t="s">
+      <c r="L3" s="223"/>
+      <c r="M3" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220" t="s">
+      <c r="N3" s="222"/>
+      <c r="O3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="223" t="s">
+      <c r="P3" s="224"/>
+      <c r="Q3" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="220"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
       <c r="X3" s="157"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="206"/>
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="208"/>
       <c r="AC3" s="159"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="119"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A4" s="211"/>
+    <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="213"/>
       <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="AE4" s="162"/>
     </row>
-    <row r="5" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1">
+    <row r="5" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>0</v>
       </c>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="AE5" s="53"/>
     </row>
-    <row r="6" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="6" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="AE6" s="53"/>
     </row>
-    <row r="7" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="7" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
         <v>2</v>
       </c>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="AE7" s="53"/>
     </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="8" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="AE8" s="53"/>
     </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="9" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>4</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="AE9" s="53"/>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="10" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AE10" s="53"/>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="11" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
         <v>6</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="AE11" s="53"/>
     </row>
-    <row r="12" spans="1:31" s="121" customFormat="1" ht="13.8">
+    <row r="12" spans="1:31" s="121" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="122" t="s">
         <v>7</v>
       </c>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AE12" s="120"/>
     </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="13" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="84" t="s">
         <v>8</v>
       </c>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="AE13" s="53"/>
     </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="14" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
         <v>9</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="AE14" s="53"/>
     </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" ht="13.8">
+    <row r="15" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>10</v>
       </c>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="AE15" s="53"/>
     </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" thickBot="1">
+    <row r="16" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85" t="s">
         <v>11</v>
       </c>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="AE16" s="53"/>
     </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" thickBot="1">
+    <row r="17" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7474,7 +7474,7 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
     </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" thickBot="1">
+    <row r="18" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="s">
         <v>12</v>
       </c>
@@ -7589,11 +7589,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:L2"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="Y2:Z3"/>
@@ -7609,6 +7604,11 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">
@@ -7730,14 +7730,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="39" customWidth="1"/>
     <col min="2" max="3" width="14.109375" style="39" customWidth="1"/>
     <col min="4" max="5" width="12.88671875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
@@ -7968,13 +7968,13 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>41</v>
       </c>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>42</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>40</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
@@ -8049,7 +8049,7 @@
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>44</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <f>B9/B20</f>
         <v>0.71963874624976298</v>
@@ -8134,13 +8134,13 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1"/>
-    <row r="3" spans="2:7">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>46</v>
       </c>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>47</v>
       </c>
@@ -8205,12 +8205,12 @@
         <v>5.5856054504256294</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="G12" s="44"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="43" t="s">
         <v>47</v>
       </c>
@@ -8290,16 +8290,16 @@
       </c>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8307,11 +8307,11 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="45"/>
       <c r="E18" s="42"/>
     </row>
@@ -8329,25 +8329,25 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158D42F-719A-4EED-A496-1C4DC8CCAADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69EED3-11AD-45DF-B945-EAB9433BDB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" activeTab="1" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
   <sheets>
     <sheet name="מדד על תכנון" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
   <si>
     <t>אופקים</t>
   </si>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1185,45 +1185,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1232,7 +1193,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1778,24 +1739,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -1805,86 +1748,95 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4709,11 +4661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814DFBB6-7E08-4D07-BC22-E38BA1AEF93F}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
@@ -4724,7 +4676,7 @@
     <col min="21" max="21" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A1" s="166"/>
       <c r="B1" s="184" t="s">
         <v>68</v>
@@ -4755,23 +4707,23 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="17.7" customHeight="1">
       <c r="A2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="197" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="197" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="198"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="192"/>
       <c r="I2" s="163">
         <v>2018</v>
       </c>
@@ -4781,37 +4733,35 @@
       <c r="K2" s="165">
         <v>2020</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="191" t="s">
+      <c r="M2" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="191" t="s">
+      <c r="N2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="193" t="s">
+      <c r="O2" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="195" t="s">
+      <c r="P2" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="191" t="s">
+      <c r="Q2" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="191" t="s">
+      <c r="R2" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="193" t="s">
+      <c r="S2" s="158" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="161"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
-        <v>64</v>
-      </c>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A3" s="223"/>
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
@@ -4842,21 +4792,37 @@
       <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="196"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="194"/>
+      <c r="L3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="218" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="218" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="218" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="218" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="158" t="s">
+        <v>29</v>
+      </c>
       <c r="T3" s="160" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="167"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +4894,7 @@
       </c>
       <c r="U4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="15" customFormat="1">
       <c r="A5" s="84" t="s">
         <v>1</v>
       </c>
@@ -5000,7 +4966,7 @@
       </c>
       <c r="U5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="15" customFormat="1">
       <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
@@ -5072,7 +5038,7 @@
       </c>
       <c r="U6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="15" customFormat="1">
       <c r="A7" s="84" t="s">
         <v>3</v>
       </c>
@@ -5144,7 +5110,7 @@
       </c>
       <c r="U7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="15" customFormat="1">
       <c r="A8" s="84" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5182,7 @@
       </c>
       <c r="U8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="15" customFormat="1">
       <c r="A9" s="84" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5254,7 @@
       </c>
       <c r="U9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="15" customFormat="1">
       <c r="A10" s="84" t="s">
         <v>6</v>
       </c>
@@ -5359,7 +5325,7 @@
       </c>
       <c r="U10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="15" customFormat="1">
       <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
@@ -5431,7 +5397,7 @@
       </c>
       <c r="U11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="15" customFormat="1">
       <c r="A12" s="84" t="s">
         <v>8</v>
       </c>
@@ -5502,7 +5468,7 @@
       </c>
       <c r="U12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="15" customFormat="1">
       <c r="A13" s="84" t="s">
         <v>9</v>
       </c>
@@ -5574,7 +5540,7 @@
       </c>
       <c r="U13" s="53"/>
     </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="15" customFormat="1">
       <c r="A14" s="84" t="s">
         <v>10</v>
       </c>
@@ -5646,7 +5612,7 @@
       </c>
       <c r="U14" s="53"/>
     </row>
-    <row r="15" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" s="15" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="85" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5683,7 @@
       </c>
       <c r="U15" s="53"/>
     </row>
-    <row r="16" spans="1:22" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="15" customFormat="1" thickBot="1">
       <c r="A16" s="83"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -5735,7 +5701,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="1:21" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="15" customFormat="1" thickBot="1">
       <c r="A17" s="91" t="s">
         <v>12</v>
       </c>
@@ -5796,59 +5762,51 @@
       </c>
       <c r="U17" s="16"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" s="102"/>
       <c r="B20" s="78"/>
       <c r="C20" s="79"/>
       <c r="D20" s="78"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="B26" s="78"/>
       <c r="C26" s="79"/>
       <c r="D26" s="78"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="102"/>
       <c r="B27" s="78"/>
       <c r="C27" s="79"/>
       <c r="D27" s="78"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="B28" s="78"/>
       <c r="C28" s="101"/>
       <c r="D28" s="78"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="B29" s="78"/>
       <c r="C29" s="35"/>
       <c r="D29" s="78"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="B30" s="78"/>
       <c r="C30" s="101"/>
       <c r="D30" s="78"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
       <c r="D31" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="6">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I15">
     <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
@@ -5944,11 +5902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FA2C2-69C4-4F73-8C4E-17B507B20ACA}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView rightToLeft="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="19" width="9.44140625" customWidth="1"/>
@@ -5960,9 +5918,9 @@
     <col min="31" max="31" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="103"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="217" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="185"/>
@@ -5982,129 +5940,129 @@
       <c r="Q1" s="185"/>
       <c r="R1" s="185"/>
       <c r="S1" s="186"/>
-      <c r="T1" s="214" t="s">
+      <c r="T1" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="202" t="s">
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="203"/>
-      <c r="AA1" s="203"/>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="204"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="196"/>
       <c r="AD1" s="160" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211" t="s">
+    <row r="2" spans="1:31" ht="17.7" customHeight="1">
+      <c r="A2" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="200">
+      <c r="C2" s="193"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="215">
         <v>2018</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="197">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="191">
         <v>2019</v>
       </c>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="200">
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="215">
         <v>2020</v>
       </c>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="197" t="s">
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="199"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="219" t="s">
+      <c r="R2" s="193"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217" t="s">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="217"/>
+      <c r="W2" s="206"/>
       <c r="X2" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="209" t="s">
+      <c r="Y2" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="205" t="s">
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="206"/>
+      <c r="AB2" s="198"/>
       <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="161"/>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="212"/>
+    <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A3" s="221"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
-      <c r="E3" s="221" t="s">
+      <c r="E3" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222" t="s">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="223"/>
-      <c r="I3" s="220" t="s">
+      <c r="H3" s="212"/>
+      <c r="I3" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222" t="s">
+      <c r="J3" s="210"/>
+      <c r="K3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="223"/>
-      <c r="M3" s="221" t="s">
+      <c r="L3" s="212"/>
+      <c r="M3" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222" t="s">
+      <c r="N3" s="211"/>
+      <c r="O3" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="225" t="s">
+      <c r="P3" s="213"/>
+      <c r="Q3" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="222"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
       <c r="X3" s="157"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="208"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="200"/>
       <c r="AC3" s="159"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="119"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="213"/>
+    <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A4" s="222"/>
       <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
@@ -6194,7 +6152,7 @@
       </c>
       <c r="AE4" s="162"/>
     </row>
-    <row r="5" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="15" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="84" t="s">
         <v>0</v>
       </c>
@@ -6298,7 +6256,7 @@
       </c>
       <c r="AE5" s="53"/>
     </row>
-    <row r="6" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A6" s="84" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6360,7 @@
       </c>
       <c r="AE6" s="53"/>
     </row>
-    <row r="7" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A7" s="84" t="s">
         <v>2</v>
       </c>
@@ -6506,7 +6464,7 @@
       </c>
       <c r="AE7" s="53"/>
     </row>
-    <row r="8" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A8" s="84" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6568,7 @@
       </c>
       <c r="AE8" s="53"/>
     </row>
-    <row r="9" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A9" s="84" t="s">
         <v>4</v>
       </c>
@@ -6714,7 +6672,7 @@
       </c>
       <c r="AE9" s="53"/>
     </row>
-    <row r="10" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A10" s="84" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6776,7 @@
       </c>
       <c r="AE10" s="53"/>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A11" s="84" t="s">
         <v>6</v>
       </c>
@@ -6922,7 +6880,7 @@
       </c>
       <c r="AE11" s="53"/>
     </row>
-    <row r="12" spans="1:31" s="121" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="121" customFormat="1" ht="13.8">
       <c r="A12" s="122" t="s">
         <v>7</v>
       </c>
@@ -7026,7 +6984,7 @@
       </c>
       <c r="AE12" s="120"/>
     </row>
-    <row r="13" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A13" s="84" t="s">
         <v>8</v>
       </c>
@@ -7130,7 +7088,7 @@
       </c>
       <c r="AE13" s="53"/>
     </row>
-    <row r="14" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A14" s="84" t="s">
         <v>9</v>
       </c>
@@ -7234,7 +7192,7 @@
       </c>
       <c r="AE14" s="53"/>
     </row>
-    <row r="15" spans="1:31" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="15" customFormat="1" ht="13.8">
       <c r="A15" s="84" t="s">
         <v>10</v>
       </c>
@@ -7338,7 +7296,7 @@
       </c>
       <c r="AE15" s="53"/>
     </row>
-    <row r="16" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="15" customFormat="1" thickBot="1">
       <c r="A16" s="85" t="s">
         <v>11</v>
       </c>
@@ -7442,7 +7400,7 @@
       </c>
       <c r="AE16" s="53"/>
     </row>
-    <row r="17" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="15" customFormat="1" thickBot="1">
       <c r="A17" s="83"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7474,7 +7432,7 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
     </row>
-    <row r="18" spans="1:31" s="15" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" s="15" customFormat="1" thickBot="1">
       <c r="A18" s="91" t="s">
         <v>12</v>
       </c>
@@ -7588,11 +7546,14 @@
       <c r="AE18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="V2:W3"/>
     <mergeCell ref="T2:U3"/>
@@ -7605,10 +7566,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">
@@ -7730,14 +7687,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="39" customWidth="1"/>
     <col min="2" max="3" width="14.109375" style="39" customWidth="1"/>
     <col min="4" max="5" width="12.88671875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -7752,7 +7709,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -7770,7 +7727,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
@@ -7788,7 +7745,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
@@ -7806,7 +7763,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -7824,7 +7781,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7799,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
@@ -7860,7 +7817,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
@@ -7878,7 +7835,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -7896,7 +7853,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
@@ -7914,7 +7871,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -7932,7 +7889,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
@@ -7950,7 +7907,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
@@ -7968,13 +7925,13 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="39" t="s">
         <v>41</v>
       </c>
@@ -7992,7 +7949,7 @@
       </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="39" t="s">
         <v>42</v>
       </c>
@@ -8011,7 +7968,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="39" t="s">
         <v>40</v>
       </c>
@@ -8030,7 +7987,7 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
@@ -8049,7 +8006,7 @@
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="39" t="s">
         <v>44</v>
       </c>
@@ -8068,7 +8025,7 @@
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
@@ -8087,7 +8044,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="B22" s="41">
         <f>B9/B20</f>
         <v>0.71963874624976298</v>
@@ -8134,13 +8091,13 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1"/>
+    <row r="3" spans="2:7">
       <c r="C3" t="s">
         <v>46</v>
       </c>
@@ -8152,7 +8109,7 @@
       </c>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -8170,7 +8127,7 @@
       </c>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -8188,7 +8145,7 @@
       </c>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="43" t="s">
         <v>47</v>
       </c>
@@ -8205,12 +8162,12 @@
         <v>5.5856054504256294</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -8224,7 +8181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -8246,7 +8203,7 @@
       </c>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -8268,7 +8225,7 @@
       </c>
       <c r="G12" s="44"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="43" t="s">
         <v>47</v>
       </c>
@@ -8290,16 +8247,16 @@
       </c>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8307,11 +8264,11 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" s="45"/>
       <c r="E18" s="42"/>
     </row>
@@ -8329,25 +8286,25 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="35"/>
       <c r="B1" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -8358,7 +8315,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8369,7 +8326,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
@@ -8380,7 +8337,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
@@ -8391,7 +8348,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
@@ -8402,7 +8359,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8370,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
@@ -8424,7 +8381,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
@@ -8435,7 +8392,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
@@ -8446,7 +8403,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
@@ -8457,7 +8414,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
@@ -8468,7 +8425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69EED3-11AD-45DF-B945-EAB9433BDB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36CC3C-15E3-4E9C-ADAE-83803A87339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
   <sheets>
     <sheet name="מדד על תכנון" sheetId="6" r:id="rId1"/>
@@ -1718,6 +1718,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,6 +1766,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,27 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4662,7 +4662,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4678,30 +4678,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A1" s="166"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="187" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="187" t="s">
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="193" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="189"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="195"/>
       <c r="T1" s="160" t="s">
         <v>65</v>
       </c>
@@ -4711,19 +4711,19 @@
       <c r="A2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="191" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="192"/>
-      <c r="F2" s="191" t="s">
+      <c r="E2" s="198"/>
+      <c r="F2" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="193"/>
-      <c r="H2" s="192"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="198"/>
       <c r="I2" s="163">
         <v>2018</v>
       </c>
@@ -4733,25 +4733,25 @@
       <c r="K2" s="165">
         <v>2020</v>
       </c>
-      <c r="L2" s="219" t="s">
+      <c r="L2" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="218" t="s">
+      <c r="N2" s="184" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="219" t="s">
+      <c r="P2" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="218" t="s">
+      <c r="Q2" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="218" t="s">
+      <c r="R2" s="184" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="158" t="s">
@@ -4761,7 +4761,7 @@
       <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A3" s="223"/>
+      <c r="A3" s="189"/>
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
@@ -4792,25 +4792,25 @@
       <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="219" t="s">
+      <c r="L3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="218" t="s">
+      <c r="M3" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="218" t="s">
+      <c r="N3" s="184" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="219" t="s">
+      <c r="P3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="218" t="s">
+      <c r="Q3" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="218" t="s">
+      <c r="R3" s="184" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="158" t="s">
@@ -5903,7 +5903,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5920,149 +5920,149 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="103"/>
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="203" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="194" t="s">
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="196"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="203"/>
       <c r="AD1" s="160" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.7" customHeight="1">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="215">
+      <c r="C2" s="199"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="222">
         <v>2018</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="191">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="197">
         <v>2019</v>
       </c>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="215">
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="222">
         <v>2020</v>
       </c>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="191" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="193"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="208" t="s">
+      <c r="R2" s="199"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206" t="s">
+      <c r="U2" s="213"/>
+      <c r="V2" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="206"/>
+      <c r="W2" s="213"/>
       <c r="X2" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="197" t="s">
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="198"/>
+      <c r="AB2" s="205"/>
       <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="161"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A3" s="221"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211" t="s">
+      <c r="F3" s="218"/>
+      <c r="G3" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="212"/>
-      <c r="I3" s="209" t="s">
+      <c r="H3" s="219"/>
+      <c r="I3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="210"/>
-      <c r="K3" s="211" t="s">
+      <c r="J3" s="217"/>
+      <c r="K3" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="212"/>
-      <c r="M3" s="210" t="s">
+      <c r="L3" s="219"/>
+      <c r="M3" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211" t="s">
+      <c r="N3" s="218"/>
+      <c r="O3" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="214" t="s">
+      <c r="P3" s="220"/>
+      <c r="Q3" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="211"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
       <c r="X3" s="157"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="200"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="207"/>
       <c r="AC3" s="159"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="119"/>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A4" s="222"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="154" t="s">
         <v>13</v>
       </c>
@@ -7547,6 +7547,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="Q2:S2"/>
@@ -7563,9 +7566,6 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T16">
     <cfRule type="colorScale" priority="5">

--- a/hon_planning_and_dev.xlsx
+++ b/hon_planning_and_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adavi\desktop\projects\pivot-yarok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36CC3C-15E3-4E9C-ADAE-83803A87339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1F554-3848-44C1-B653-280980E7EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="692" xr2:uid="{EE1E2518-0FD5-4401-B20A-1CAED4EDEA71}"/>
   </bookViews>
   <sheets>
     <sheet name="מדד על תכנון" sheetId="6" r:id="rId1"/>
@@ -1766,6 +1766,18 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,22 +1832,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -4661,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814DFBB6-7E08-4D07-BC22-E38BA1AEF93F}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5809,17 +5809,17 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I15">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>$I$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J15">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>$J$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:N15">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>$K$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5834,7 +5834,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$L$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5849,7 +5849,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$M$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5864,7 +5864,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$N$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5879,17 +5879,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T15">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T15">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>$T$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5903,7 +5903,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5920,7 +5920,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22.95" customHeight="1" thickBot="1">
       <c r="A1" s="103"/>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="204" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="191"/>
@@ -5940,20 +5940,20 @@
       <c r="Q1" s="191"/>
       <c r="R1" s="191"/>
       <c r="S1" s="192"/>
-      <c r="T1" s="210" t="s">
+      <c r="T1" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="201" t="s">
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="203"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="207"/>
       <c r="AD1" s="160" t="s">
         <v>66</v>
       </c>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="C2" s="199"/>
       <c r="D2" s="198"/>
-      <c r="E2" s="222">
+      <c r="E2" s="202">
         <v>2018</v>
       </c>
       <c r="F2" s="199"/>
@@ -5979,36 +5979,36 @@
       <c r="J2" s="199"/>
       <c r="K2" s="199"/>
       <c r="L2" s="198"/>
-      <c r="M2" s="222">
+      <c r="M2" s="202">
         <v>2020</v>
       </c>
       <c r="N2" s="199"/>
       <c r="O2" s="199"/>
-      <c r="P2" s="223"/>
+      <c r="P2" s="203"/>
       <c r="Q2" s="197" t="s">
         <v>38</v>
       </c>
       <c r="R2" s="199"/>
       <c r="S2" s="198"/>
-      <c r="T2" s="215" t="s">
+      <c r="T2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213" t="s">
+      <c r="U2" s="217"/>
+      <c r="V2" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="213"/>
+      <c r="W2" s="217"/>
       <c r="X2" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="208" t="s">
+      <c r="Y2" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="205"/>
+      <c r="AB2" s="209"/>
       <c r="AC2" s="158" t="s">
         <v>25</v>
       </c>
@@ -6019,44 +6019,44 @@
       <c r="B3" s="155"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218" t="s">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="219"/>
-      <c r="I3" s="216" t="s">
+      <c r="H3" s="201"/>
+      <c r="I3" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="217"/>
-      <c r="K3" s="218" t="s">
+      <c r="J3" s="221"/>
+      <c r="K3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="217" t="s">
+      <c r="L3" s="201"/>
+      <c r="M3" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218" t="s">
+      <c r="N3" s="200"/>
+      <c r="O3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="221" t="s">
+      <c r="P3" s="222"/>
+      <c r="Q3" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="218"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
       <c r="X3" s="157"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="207"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="211"/>
       <c r="AC3" s="159"/>
       <c r="AD3" s="161"/>
       <c r="AE3" s="119"/>
@@ -7547,6 +7547,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="T2:U3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="E2:H2"/>
@@ -7554,12 +7560,6 @@
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AA2:AB3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="T2:U3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -7578,7 +7578,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>$T$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7593,7 +7593,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>$U$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7608,7 +7608,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>$V$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7625,7 +7625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:X16">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>$W$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7640,37 +7640,37 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>$X$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y16">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>$Y$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AD16">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z16">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>$Z$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA16">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$AA$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB16">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>$AB$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD16">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>$AD$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8062,20 +8062,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="cellIs" dxfId="3" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="135" operator="equal">
       <formula>$B$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="cellIs" dxfId="2" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="133" operator="equal">
       <formula>$C$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>$D$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="137" operator="equal">
       <formula>$E$15</formula>
     </cfRule>
   </conditionalFormatting>
